--- a/capiq_data/in_process_data/IQ25307.xlsx
+++ b/capiq_data/in_process_data/IQ25307.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F9B35-C498-4CC9-A56F-F11F1C1C5E86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0843C4-DEE2-48F9-8660-B4FBC8040684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"a21a48b7-d128-434a-974f-450384d05a92"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"b77e3e98-6664-497e-84ff-93880c4b2254"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
     <t>FQ12011</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ12021</t>
+  </si>
+  <si>
+    <t>FQ22021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40502</v>
+        <v>36932</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>172.07599999999999</v>
+        <v>31.736000000000001</v>
       </c>
       <c r="D2">
-        <v>1791.662</v>
+        <v>973.99900000000002</v>
       </c>
       <c r="E2">
-        <v>116.645</v>
+        <v>22.984000000000002</v>
       </c>
       <c r="F2">
-        <v>907.74800000000005</v>
+        <v>397.33300000000003</v>
       </c>
       <c r="G2">
-        <v>2660.5639999999999</v>
+        <v>1238.3920000000001</v>
       </c>
       <c r="H2">
-        <v>5640.4889999999996</v>
+        <v>3391.125</v>
       </c>
       <c r="I2">
-        <v>2519.9430000000002</v>
+        <v>659.28399999999999</v>
       </c>
       <c r="J2">
-        <v>2845.7</v>
+        <v>1520.0450000000001</v>
       </c>
       <c r="K2">
-        <v>33.517000000000003</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-541.73099999999999</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3244.8870000000002</v>
+        <v>937.16300000000001</v>
       </c>
       <c r="O2">
-        <v>6457.6570000000002</v>
+        <v>2512.5520000000001</v>
       </c>
       <c r="P2">
-        <v>2964.2359999999999</v>
+        <v>1520.0450000000001</v>
       </c>
       <c r="Q2">
-        <v>-0.26700000000000002</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="R2">
-        <v>40502</v>
+        <v>36932</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>-817.16800000000001</v>
+        <v>878.57299999999998</v>
       </c>
       <c r="U2">
-        <v>98.013000000000005</v>
+        <v>7.11</v>
       </c>
       <c r="V2">
-        <v>357.35300000000001</v>
+        <v>-33.759</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-310.15199999999999</v>
+        <v>65.384</v>
       </c>
       <c r="Y2">
-        <v>85.019000000000005</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-2.5859999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>172.07599999999999</v>
+        <v>31.736000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40586</v>
+        <v>37016</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>148.05500000000001</v>
+        <v>63.524999999999999</v>
       </c>
       <c r="D3">
-        <v>1660.9459999999999</v>
+        <v>1139.9570000000001</v>
       </c>
       <c r="E3">
-        <v>140.227</v>
+        <v>22.581</v>
       </c>
       <c r="F3">
-        <v>845.61099999999999</v>
+        <v>482.57799999999997</v>
       </c>
       <c r="G3">
-        <v>2738.1149999999998</v>
+        <v>1293.616</v>
       </c>
       <c r="H3">
-        <v>5765.6030000000001</v>
+        <v>3447.1660000000002</v>
       </c>
       <c r="I3">
-        <v>2524.5390000000002</v>
+        <v>782.00699999999995</v>
       </c>
       <c r="J3">
-        <v>3208.3</v>
+        <v>1392.729</v>
       </c>
       <c r="K3">
-        <v>40.93</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3225.136</v>
+        <v>1111.8209999999999</v>
       </c>
       <c r="O3">
-        <v>6804.0150000000003</v>
+        <v>2557.52</v>
       </c>
       <c r="P3">
-        <v>3331.078</v>
+        <v>1392.729</v>
       </c>
       <c r="Q3">
-        <v>9.8680000000000003</v>
+        <v>7.8E-2</v>
       </c>
       <c r="R3">
-        <v>40586</v>
+        <v>37016</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>-1038.412</v>
+        <v>889.64599999999996</v>
       </c>
       <c r="U3">
-        <v>107.881</v>
+        <v>7.1879999999999997</v>
       </c>
       <c r="V3">
-        <v>83.756</v>
+        <v>212.36199999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-12.662000000000001</v>
+        <v>-178.75399999999999</v>
       </c>
       <c r="Y3">
-        <v>81.847999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-0.54100000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>148.05600000000001</v>
+        <v>63.524999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40670</v>
+        <v>37128</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>227.374</v>
+        <v>26.477</v>
       </c>
       <c r="D4">
-        <v>1978.3689999999999</v>
+        <v>1640.663</v>
       </c>
       <c r="E4">
-        <v>136.369</v>
+        <v>19.135000000000002</v>
       </c>
       <c r="F4">
-        <v>1013.53</v>
+        <v>717.91300000000001</v>
       </c>
       <c r="G4">
-        <v>2806.529</v>
+        <v>1328.511</v>
       </c>
       <c r="H4">
-        <v>5884.8779999999997</v>
+        <v>3432.5120000000002</v>
       </c>
       <c r="I4">
-        <v>2710.0810000000001</v>
+        <v>945.66600000000005</v>
       </c>
       <c r="J4">
-        <v>3171.1</v>
+        <v>1225.402</v>
       </c>
       <c r="K4">
-        <v>49.686</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3461.8429999999998</v>
+        <v>1266.654</v>
       </c>
       <c r="O4">
-        <v>7004.4189999999999</v>
+        <v>2566.299</v>
       </c>
       <c r="P4">
-        <v>3303.8130000000001</v>
+        <v>1225.402</v>
       </c>
       <c r="Q4">
-        <v>-7.5140000000000002</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="R4">
-        <v>40670</v>
+        <v>37128</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="T4">
-        <v>-1119.5409999999999</v>
+        <v>866.21299999999997</v>
       </c>
       <c r="U4">
-        <v>100.367</v>
+        <v>7.2859999999999996</v>
       </c>
       <c r="V4">
-        <v>455.78399999999999</v>
+        <v>252.755</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-371.87299999999999</v>
+        <v>-229.61799999999999</v>
       </c>
       <c r="Y4">
-        <v>83.027000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.49399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>227.37299999999999</v>
+        <v>26.477</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40782</v>
+        <v>37212</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>301.46899999999999</v>
+        <v>84.076999999999998</v>
       </c>
       <c r="D5">
-        <v>2641.9960000000001</v>
+        <v>1176.0519999999999</v>
       </c>
       <c r="E5">
-        <v>140.69</v>
+        <v>31.11</v>
       </c>
       <c r="F5">
-        <v>1352.5740000000001</v>
+        <v>516.13599999999997</v>
       </c>
       <c r="G5">
-        <v>2792.4250000000002</v>
+        <v>1416.383</v>
       </c>
       <c r="H5">
-        <v>5869.6019999999999</v>
+        <v>3504.8519999999999</v>
       </c>
       <c r="I5">
-        <v>2755.8530000000001</v>
+        <v>894.928</v>
       </c>
       <c r="J5">
-        <v>3317.6</v>
+        <v>1280.6420000000001</v>
       </c>
       <c r="K5">
-        <v>34.082000000000001</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3430.8960000000002</v>
+        <v>1241.77</v>
       </c>
       <c r="O5">
-        <v>7123.8339999999998</v>
+        <v>2594.5839999999998</v>
       </c>
       <c r="P5">
-        <v>3438.3380000000002</v>
+        <v>1280.6420000000001</v>
       </c>
       <c r="Q5">
-        <v>-2.7610000000000001</v>
+        <v>-1E-3</v>
       </c>
       <c r="R5">
-        <v>40782</v>
+        <v>37212</v>
       </c>
       <c r="S5">
-        <v>37050</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-1254.232</v>
+        <v>910.26800000000003</v>
       </c>
       <c r="U5">
-        <v>97.605999999999995</v>
+        <v>7.2850000000000001</v>
       </c>
       <c r="V5">
-        <v>394.64499999999998</v>
+        <v>7.1619999999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-279.084</v>
+        <v>7.5650000000000004</v>
       </c>
       <c r="Y5">
-        <v>61.36</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.9419999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>301.46899999999999</v>
+        <v>84.076999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40866</v>
+        <v>37296</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>191.125</v>
+        <v>63.771000000000001</v>
       </c>
       <c r="D6">
-        <v>1924.3409999999999</v>
+        <v>1081.3109999999999</v>
       </c>
       <c r="E6">
-        <v>135.69499999999999</v>
+        <v>17.959</v>
       </c>
       <c r="F6">
-        <v>983.62699999999995</v>
+        <v>474.9</v>
       </c>
       <c r="G6">
-        <v>2842.6729999999998</v>
+        <v>1350.0119999999999</v>
       </c>
       <c r="H6">
-        <v>5932.58</v>
+        <v>3421.4479999999999</v>
       </c>
       <c r="I6">
-        <v>2843.741</v>
+        <v>838.09199999999998</v>
       </c>
       <c r="J6">
-        <v>3318.9</v>
+        <v>1251.942</v>
       </c>
       <c r="K6">
-        <v>35.417000000000002</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-6.4480000000000004</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3578.9659999999999</v>
+        <v>1206.5809999999999</v>
       </c>
       <c r="O6">
-        <v>7279.6790000000001</v>
+        <v>2529.848</v>
       </c>
       <c r="P6">
-        <v>3354.317</v>
+        <v>1251.942</v>
       </c>
       <c r="Q6">
-        <v>-0.93</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="R6">
-        <v>40866</v>
+        <v>37296</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>-1347.0989999999999</v>
+        <v>891.6</v>
       </c>
       <c r="U6">
-        <v>96.676000000000002</v>
+        <v>7.2279999999999998</v>
       </c>
       <c r="V6">
-        <v>342.29399999999998</v>
+        <v>113.033</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-280.69900000000001</v>
+        <v>-117.874</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1.022</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>191.125</v>
+        <v>63.771000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40950</v>
+        <v>37380</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>166.93</v>
+        <v>102.31399999999999</v>
       </c>
       <c r="D7">
-        <v>1804.069</v>
+        <v>1224.81</v>
       </c>
       <c r="E7">
-        <v>144.79</v>
+        <v>22.5</v>
       </c>
       <c r="F7">
-        <v>926.21500000000003</v>
+        <v>541.98400000000004</v>
       </c>
       <c r="G7">
-        <v>2908.5639999999999</v>
+        <v>1371.9770000000001</v>
       </c>
       <c r="H7">
-        <v>6056.4639999999999</v>
+        <v>3444.2469999999998</v>
       </c>
       <c r="I7">
-        <v>2824.873</v>
+        <v>932.10599999999999</v>
       </c>
       <c r="J7">
-        <v>3434.8</v>
+        <v>1251.134</v>
       </c>
       <c r="K7">
-        <v>29.56</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3516.7890000000002</v>
+        <v>1348.0160000000001</v>
       </c>
       <c r="O7">
-        <v>7351.9880000000003</v>
+        <v>2669.3319999999999</v>
       </c>
       <c r="P7">
-        <v>3568.134</v>
+        <v>1251.134</v>
       </c>
       <c r="Q7">
-        <v>6.5309999999999997</v>
+        <v>1.4E-2</v>
       </c>
       <c r="R7">
-        <v>40950</v>
+        <v>37380</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>-1295.5239999999999</v>
+        <v>774.91499999999996</v>
       </c>
       <c r="U7">
-        <v>103.20699999999999</v>
+        <v>7.242</v>
       </c>
       <c r="V7">
-        <v>118.92</v>
+        <v>268.661</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-45.561</v>
+        <v>-234.06700000000001</v>
       </c>
       <c r="Y7">
-        <v>103.774</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-1.5449999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>166.93</v>
+        <v>102.31399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41034</v>
+        <v>37499</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>248.58600000000001</v>
+        <v>177.98599999999999</v>
       </c>
       <c r="D8">
-        <v>2111.866</v>
+        <v>1843.337</v>
       </c>
       <c r="E8">
-        <v>133.941</v>
+        <v>23.782</v>
       </c>
       <c r="F8">
-        <v>1089.799</v>
+        <v>842.36699999999996</v>
       </c>
       <c r="G8">
-        <v>2944.2719999999999</v>
+        <v>1450.1279999999999</v>
       </c>
       <c r="H8">
-        <v>6148.8540000000003</v>
+        <v>3477.7910000000002</v>
       </c>
       <c r="I8">
-        <v>2866.58</v>
+        <v>1145.5329999999999</v>
       </c>
       <c r="J8">
-        <v>3599</v>
+        <v>1194.5170000000001</v>
       </c>
       <c r="K8">
-        <v>7.3090000000000002</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,244 +1390,244 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3567.393</v>
+        <v>1533.5709999999999</v>
       </c>
       <c r="O8">
-        <v>7565.683</v>
+        <v>2788.6640000000002</v>
       </c>
       <c r="P8">
-        <v>3706.9960000000001</v>
+        <v>1194.5170000000001</v>
       </c>
       <c r="Q8">
-        <v>-0.107</v>
+        <v>-0.77300000000000002</v>
       </c>
       <c r="R8">
-        <v>41034</v>
+        <v>37499</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="T8">
-        <v>-1416.829</v>
+        <v>689.12699999999995</v>
       </c>
       <c r="U8">
-        <v>103.1</v>
+        <v>6.4980000000000002</v>
       </c>
       <c r="V8">
-        <v>337.39299999999997</v>
+        <v>350.23500000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-240.35300000000001</v>
+        <v>-330.99200000000002</v>
       </c>
       <c r="Y8">
-        <v>100.687</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-1.2589999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>248.58600000000001</v>
+        <v>177.98599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41146</v>
+        <v>37583</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>323.73200000000003</v>
+        <v>104.911</v>
       </c>
       <c r="D9">
-        <v>2763.5859999999998</v>
+        <v>1218.635</v>
       </c>
       <c r="E9">
-        <v>161.375</v>
+        <v>28.899000000000001</v>
       </c>
       <c r="F9">
-        <v>1432.395</v>
+        <v>549.39</v>
       </c>
       <c r="G9">
-        <v>2978.9459999999999</v>
+        <v>1565.845</v>
       </c>
       <c r="H9">
-        <v>6265.6390000000001</v>
+        <v>3612.5129999999999</v>
       </c>
       <c r="I9">
-        <v>2926.74</v>
+        <v>1120.748</v>
       </c>
       <c r="J9">
-        <v>3718.3020000000001</v>
+        <v>1313.0920000000001</v>
       </c>
       <c r="K9">
-        <v>4.7809999999999997</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-181.42500000000001</v>
       </c>
       <c r="N9">
-        <v>3655.5920000000001</v>
+        <v>1485.123</v>
       </c>
       <c r="O9">
-        <v>7813.6639999999998</v>
+        <v>2858.6709999999998</v>
       </c>
       <c r="P9">
-        <v>3870.4389999999999</v>
+        <v>1313.0920000000001</v>
       </c>
       <c r="Q9">
-        <v>-7.0000000000000001E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="R9">
-        <v>41146</v>
+        <v>37583</v>
       </c>
       <c r="S9">
-        <v>41300</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-1548.0250000000001</v>
+        <v>753.84199999999998</v>
       </c>
       <c r="U9">
-        <v>103.093</v>
+        <v>6.53</v>
       </c>
       <c r="V9">
-        <v>425.37400000000002</v>
+        <v>-35.896000000000001</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-276.82</v>
+        <v>62.762</v>
       </c>
       <c r="Y9">
-        <v>72.414000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.54600000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>323.73200000000003</v>
+        <v>104.911</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41230</v>
+        <v>37667</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>203.452</v>
+        <v>79.275000000000006</v>
       </c>
       <c r="D10">
-        <v>1991.04</v>
+        <v>1120.6959999999999</v>
       </c>
       <c r="E10">
-        <v>173.33799999999999</v>
+        <v>29.274000000000001</v>
       </c>
       <c r="F10">
-        <v>1031.866</v>
+        <v>495.99900000000002</v>
       </c>
       <c r="G10">
-        <v>3062.2910000000002</v>
+        <v>1577.914</v>
       </c>
       <c r="H10">
-        <v>6398.0389999999998</v>
+        <v>3614.5819999999999</v>
       </c>
       <c r="I10">
-        <v>3021.9160000000002</v>
+        <v>1048.077</v>
       </c>
       <c r="J10">
-        <v>3802.7049999999999</v>
+        <v>1339.5419999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>-304.85199999999998</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>-7.4740000000000002</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3744.4920000000002</v>
+        <v>1469.797</v>
       </c>
       <c r="O10">
-        <v>7989.4080000000004</v>
+        <v>2866.808</v>
       </c>
       <c r="P10">
-        <v>3903.8490000000002</v>
+        <v>1339.5419999999999</v>
       </c>
       <c r="Q10">
-        <v>-3.2290000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="R10">
-        <v>41230</v>
+        <v>37667</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>-1591.3689999999999</v>
+        <v>747.774</v>
       </c>
       <c r="U10">
-        <v>99.864000000000004</v>
+        <v>6.5590000000000002</v>
       </c>
       <c r="V10">
-        <v>318.25299999999999</v>
+        <v>87.064999999999998</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-235.85900000000001</v>
+        <v>-60.33</v>
       </c>
       <c r="Y10">
-        <v>101.14400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-5.6230000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>203.452</v>
+        <v>79.275000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41314</v>
+        <v>37751</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>176.24600000000001</v>
+        <v>125.977</v>
       </c>
       <c r="D11">
-        <v>1855.1980000000001</v>
+        <v>1288.4449999999999</v>
       </c>
       <c r="E11">
-        <v>160.41999999999999</v>
+        <v>44.78</v>
       </c>
       <c r="F11">
-        <v>961.98099999999999</v>
+        <v>598.82299999999998</v>
       </c>
       <c r="G11">
-        <v>3123.3679999999999</v>
+        <v>1605.3030000000001</v>
       </c>
       <c r="H11">
-        <v>6662.1880000000001</v>
+        <v>3647.848</v>
       </c>
       <c r="I11">
-        <v>3034.0169999999998</v>
+        <v>1090.1579999999999</v>
       </c>
       <c r="J11">
-        <v>3513.2730000000001</v>
+        <v>1419.9670000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4231.808</v>
+        <v>1570.8789999999999</v>
       </c>
       <c r="O11">
-        <v>8212.2970000000005</v>
+        <v>3046.23</v>
       </c>
       <c r="P11">
-        <v>4097.1750000000002</v>
+        <v>1419.9670000000001</v>
       </c>
       <c r="Q11">
-        <v>15.683999999999999</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="R11">
-        <v>41314</v>
+        <v>37751</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>-1550.1089999999999</v>
+        <v>601.61800000000005</v>
       </c>
       <c r="U11">
-        <v>115.548</v>
+        <v>6.6379999999999999</v>
       </c>
       <c r="V11">
-        <v>192.59</v>
+        <v>226.774</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>26.792000000000002</v>
+        <v>-193.441</v>
       </c>
       <c r="Y11">
-        <v>99.369</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.45300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>176.24700000000001</v>
+        <v>125.977</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41398</v>
+        <v>37863</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>265.58300000000003</v>
+        <v>207.441</v>
       </c>
       <c r="D12">
-        <v>2205.8780000000002</v>
+        <v>1829.347</v>
       </c>
       <c r="E12">
-        <v>155.55000000000001</v>
+        <v>43.746000000000002</v>
       </c>
       <c r="F12">
-        <v>1142.713</v>
+        <v>870.79700000000003</v>
       </c>
       <c r="G12">
-        <v>3178.3229999999999</v>
+        <v>1671.354</v>
       </c>
       <c r="H12">
-        <v>6783.0410000000002</v>
+        <v>3766.826</v>
       </c>
       <c r="I12">
-        <v>3116.5569999999998</v>
+        <v>1360.482</v>
       </c>
       <c r="J12">
-        <v>4001.1</v>
+        <v>1546.845</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,161 +1722,161 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3836.049</v>
+        <v>1761.9259999999999</v>
       </c>
       <c r="O12">
-        <v>8315.3829999999998</v>
+        <v>3393.0680000000002</v>
       </c>
       <c r="P12">
-        <v>4105.8069999999998</v>
+        <v>1546.845</v>
       </c>
       <c r="Q12">
-        <v>18.137</v>
+        <v>22.655999999999999</v>
       </c>
       <c r="R12">
-        <v>41398</v>
+        <v>37863</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>29500</v>
       </c>
       <c r="T12">
-        <v>-1532.3420000000001</v>
+        <v>373.75799999999998</v>
       </c>
       <c r="U12">
-        <v>133.685</v>
+        <v>93.102000000000004</v>
       </c>
       <c r="V12">
-        <v>385.02100000000002</v>
+        <v>442.86399999999998</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-283.745</v>
+        <v>-339.20299999999997</v>
       </c>
       <c r="Y12">
-        <v>104.70699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.442</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>265.58300000000003</v>
+        <v>207.441</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37947</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>371.19900000000001</v>
+        <v>121.745</v>
       </c>
       <c r="D13">
-        <v>3095.4140000000002</v>
+        <v>1282.04</v>
       </c>
       <c r="E13">
-        <v>171.63800000000001</v>
+        <v>64.962000000000003</v>
       </c>
       <c r="F13">
-        <v>1604.375</v>
+        <v>613.09</v>
       </c>
       <c r="G13">
-        <v>3278.0129999999999</v>
+        <v>1632.385</v>
       </c>
       <c r="H13">
-        <v>6892.0889999999999</v>
+        <v>3720.2750000000001</v>
       </c>
       <c r="I13">
-        <v>3307.5349999999999</v>
+        <v>1346.9090000000001</v>
       </c>
       <c r="J13">
-        <v>4013.2669999999998</v>
+        <v>1453.345</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-193.5</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="N13">
-        <v>4169.1499999999996</v>
+        <v>1710.1189999999999</v>
       </c>
       <c r="O13">
-        <v>8579.4079999999994</v>
+        <v>3247.0039999999999</v>
       </c>
       <c r="P13">
-        <v>4293.1710000000003</v>
+        <v>1453.345</v>
       </c>
       <c r="Q13">
-        <v>8.5060000000000002</v>
+        <v>-18.091999999999999</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37947</v>
       </c>
       <c r="S13">
-        <v>41890</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>-1687.319</v>
+        <v>473.27100000000002</v>
       </c>
       <c r="U13">
-        <v>142.191</v>
+        <v>6.6639999999999997</v>
       </c>
       <c r="V13">
-        <v>519.14700000000005</v>
+        <v>111.65600000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-354.21</v>
+        <v>-100.73</v>
       </c>
       <c r="Y13">
-        <v>73.924999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>371.19900000000001</v>
+        <v>121.745</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41601</v>
+        <v>38031</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>218.08699999999999</v>
+        <v>91.653000000000006</v>
       </c>
       <c r="D14">
-        <v>2093.578</v>
+        <v>1159.2360000000001</v>
       </c>
       <c r="E14">
-        <v>173.114</v>
+        <v>77.281999999999996</v>
       </c>
       <c r="F14">
-        <v>1085.6969999999999</v>
+        <v>564.31100000000004</v>
       </c>
       <c r="G14">
-        <v>3370.2350000000001</v>
+        <v>1600.354</v>
       </c>
       <c r="H14">
-        <v>7023.4229999999998</v>
+        <v>3701.7159999999999</v>
       </c>
       <c r="I14">
-        <v>3407.2860000000001</v>
+        <v>1216.404</v>
       </c>
       <c r="J14">
-        <v>4013.2440000000001</v>
+        <v>1786.9449999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1885,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-21.702999999999999</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4332.8249999999998</v>
+        <v>1597.837</v>
       </c>
       <c r="O14">
-        <v>8744.643</v>
+        <v>3467.8389999999999</v>
       </c>
       <c r="P14">
-        <v>4276.6629999999996</v>
+        <v>1786.9449999999999</v>
       </c>
       <c r="Q14">
-        <v>-16.338999999999999</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="R14">
-        <v>41601</v>
+        <v>38031</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>-1721.22</v>
+        <v>233.87700000000001</v>
       </c>
       <c r="U14">
-        <v>125.852</v>
+        <v>6.7110000000000003</v>
       </c>
       <c r="V14">
-        <v>357.34300000000002</v>
+        <v>45.826000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-290.78699999999998</v>
+        <v>-0.86</v>
       </c>
       <c r="Y14">
-        <v>103.163</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-0.26800000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>218.08699999999999</v>
+        <v>91.653999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41685</v>
+        <v>38115</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>192.83</v>
+        <v>143.411</v>
       </c>
       <c r="D15">
-        <v>1990.4939999999999</v>
+        <v>1360.0219999999999</v>
       </c>
       <c r="E15">
-        <v>191.11500000000001</v>
+        <v>84.316000000000003</v>
       </c>
       <c r="F15">
-        <v>1037.0350000000001</v>
+        <v>676.18700000000001</v>
       </c>
       <c r="G15">
-        <v>3538.498</v>
+        <v>1643.453</v>
       </c>
       <c r="H15">
-        <v>7262.8919999999998</v>
+        <v>3788.556</v>
       </c>
       <c r="I15">
-        <v>3477.6970000000001</v>
+        <v>1240.154</v>
       </c>
       <c r="J15">
-        <v>4163.2439999999997</v>
+        <v>1798.9169999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4399.3100000000004</v>
+        <v>1652.7470000000001</v>
       </c>
       <c r="O15">
-        <v>8973.1540000000005</v>
+        <v>3528.415</v>
       </c>
       <c r="P15">
-        <v>4428.9080000000004</v>
+        <v>1798.9169999999999</v>
       </c>
       <c r="Q15">
-        <v>13.903</v>
+        <v>7.2670000000000003</v>
       </c>
       <c r="R15">
-        <v>41685</v>
+        <v>38115</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>-1710.2619999999999</v>
+        <v>260.14100000000002</v>
       </c>
       <c r="U15">
-        <v>139.755</v>
+        <v>6.758</v>
       </c>
       <c r="V15">
-        <v>150.62899999999999</v>
+        <v>176.89400000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-45.941000000000003</v>
+        <v>-116.18600000000001</v>
       </c>
       <c r="Y15">
-        <v>107.224</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-1.583</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>192.83</v>
+        <v>143.411</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41769</v>
+        <v>38227</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>285.15699999999998</v>
+        <v>209.393</v>
       </c>
       <c r="D16">
-        <v>2341.5450000000001</v>
+        <v>1835.7270000000001</v>
       </c>
       <c r="E16">
-        <v>190.84800000000001</v>
+        <v>68.372</v>
       </c>
       <c r="F16">
-        <v>1216.9580000000001</v>
+        <v>902.99099999999999</v>
       </c>
       <c r="G16">
-        <v>3587.8440000000001</v>
+        <v>1755.7570000000001</v>
       </c>
       <c r="H16">
-        <v>7371.8019999999997</v>
+        <v>3912.5650000000001</v>
       </c>
       <c r="I16">
-        <v>3574.9209999999998</v>
+        <v>1429.1279999999999</v>
       </c>
       <c r="J16">
-        <v>4163.2439999999997</v>
+        <v>1869.25</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,161 +2054,161 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4603.9520000000002</v>
+        <v>1751.0509999999999</v>
       </c>
       <c r="O16">
-        <v>9180.0319999999992</v>
+        <v>3741.172</v>
       </c>
       <c r="P16">
-        <v>4484.6139999999996</v>
+        <v>1869.25</v>
       </c>
       <c r="Q16">
-        <v>5.5940000000000003</v>
+        <v>-10.95</v>
       </c>
       <c r="R16">
-        <v>41769</v>
+        <v>38227</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>28910</v>
       </c>
       <c r="T16">
-        <v>-1808.23</v>
+        <v>171.393</v>
       </c>
       <c r="U16">
-        <v>145.34899999999999</v>
+        <v>76.852000000000004</v>
       </c>
       <c r="V16">
-        <v>463.14600000000002</v>
+        <v>304.00299999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-357.24299999999999</v>
+        <v>-243.13200000000001</v>
       </c>
       <c r="Y16">
-        <v>106.214</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1.752</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>285.15699999999998</v>
+        <v>209.393</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41881</v>
+        <v>38311</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>373.67</v>
+        <v>122.523</v>
       </c>
       <c r="D17">
-        <v>3049.6959999999999</v>
+        <v>1286.203</v>
       </c>
       <c r="E17">
-        <v>200.899</v>
+        <v>73.311999999999998</v>
       </c>
       <c r="F17">
-        <v>1595.2170000000001</v>
+        <v>620.80100000000004</v>
       </c>
       <c r="G17">
-        <v>3580.6120000000001</v>
+        <v>1840.2439999999999</v>
       </c>
       <c r="H17">
-        <v>7497.1629999999996</v>
+        <v>4020.05</v>
       </c>
       <c r="I17">
-        <v>3609.1990000000001</v>
+        <v>1490.5830000000001</v>
       </c>
       <c r="J17">
-        <v>4142.1959999999999</v>
+        <v>1824.7750000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-43.8</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4541.0940000000001</v>
+        <v>1869.643</v>
       </c>
       <c r="O17">
-        <v>9119.02</v>
+        <v>3742.6619999999998</v>
       </c>
       <c r="P17">
-        <v>4359.6109999999999</v>
+        <v>1824.7750000000001</v>
       </c>
       <c r="Q17">
-        <v>-20.864000000000001</v>
+        <v>-12.971</v>
       </c>
       <c r="R17">
-        <v>41881</v>
+        <v>38311</v>
       </c>
       <c r="S17">
-        <v>43320</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>-1621.857</v>
+        <v>277.38799999999998</v>
       </c>
       <c r="U17">
-        <v>124.485</v>
+        <v>63.881</v>
       </c>
       <c r="V17">
-        <v>370.11599999999999</v>
+        <v>112.917</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-217.58600000000001</v>
+        <v>-63.904000000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.66300000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>373.67</v>
+        <v>122.523</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41965</v>
+        <v>38395</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>238.31</v>
+        <v>94.093000000000004</v>
       </c>
       <c r="D18">
-        <v>2260.2640000000001</v>
+        <v>1204.0550000000001</v>
       </c>
       <c r="E18">
-        <v>195.52099999999999</v>
+        <v>104.578</v>
       </c>
       <c r="F18">
-        <v>1176.6610000000001</v>
+        <v>582.37099999999998</v>
       </c>
       <c r="G18">
-        <v>3707.5810000000001</v>
+        <v>1847.0540000000001</v>
       </c>
       <c r="H18">
-        <v>7717.1009999999997</v>
+        <v>4059.4369999999999</v>
       </c>
       <c r="I18">
-        <v>3690.7539999999999</v>
+        <v>1286.78</v>
       </c>
       <c r="J18">
-        <v>3862.8649999999998</v>
+        <v>1901.5</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2217,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-9.1920000000000002</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>5090.9639999999999</v>
+        <v>1645.42</v>
       </c>
       <c r="O18">
-        <v>9379.9110000000001</v>
+        <v>3674.7060000000001</v>
       </c>
       <c r="P18">
-        <v>4546.9979999999996</v>
+        <v>1901.5</v>
       </c>
       <c r="Q18">
-        <v>-7.2930000000000001</v>
+        <v>16.257999999999999</v>
       </c>
       <c r="R18">
-        <v>41965</v>
+        <v>38395</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>-1662.81</v>
+        <v>384.73099999999999</v>
       </c>
       <c r="U18">
-        <v>117.19199999999999</v>
+        <v>80.138999999999996</v>
       </c>
       <c r="V18">
-        <v>375.22800000000001</v>
+        <v>-11.750999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-201.16399999999999</v>
+        <v>85.921000000000006</v>
       </c>
       <c r="Y18">
-        <v>124.898</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>-2.6139999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>238.31</v>
+        <v>94.093000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42049</v>
+        <v>38479</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>211.72300000000001</v>
+        <v>147.78800000000001</v>
       </c>
       <c r="D19">
-        <v>2143.6509999999998</v>
+        <v>1338.3869999999999</v>
       </c>
       <c r="E19">
-        <v>196.65</v>
+        <v>120.121</v>
       </c>
       <c r="F19">
-        <v>1120.0329999999999</v>
+        <v>673.10299999999995</v>
       </c>
       <c r="G19">
-        <v>3913.8629999999998</v>
+        <v>1911.7380000000001</v>
       </c>
       <c r="H19">
-        <v>7949.9650000000001</v>
+        <v>4168.5020000000004</v>
       </c>
       <c r="I19">
-        <v>3716.5189999999998</v>
+        <v>1429.675</v>
       </c>
       <c r="J19">
-        <v>4361.1440000000002</v>
+        <v>1914.5250000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4623.3230000000003</v>
+        <v>1816.585</v>
       </c>
       <c r="O19">
-        <v>9418.6440000000002</v>
+        <v>3869.7559999999999</v>
       </c>
       <c r="P19">
-        <v>4574.0950000000003</v>
+        <v>1914.5250000000001</v>
       </c>
       <c r="Q19">
-        <v>34.347000000000001</v>
+        <v>-2.7610000000000001</v>
       </c>
       <c r="R19">
-        <v>42049</v>
+        <v>38479</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>-1468.6790000000001</v>
+        <v>298.74599999999998</v>
       </c>
       <c r="U19">
-        <v>151.53899999999999</v>
+        <v>77.378</v>
       </c>
       <c r="V19">
-        <v>101.31</v>
+        <v>302.34500000000003</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>26.47</v>
+        <v>-238.626</v>
       </c>
       <c r="Y19">
-        <v>125.795</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>211.72300000000001</v>
+        <v>147.78899999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42133</v>
+        <v>38591</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>309.07100000000003</v>
+        <v>206.61500000000001</v>
       </c>
       <c r="D20">
-        <v>2493.0210000000002</v>
+        <v>1882.2370000000001</v>
       </c>
       <c r="E20">
-        <v>212.06800000000001</v>
+        <v>118.26300000000001</v>
       </c>
       <c r="F20">
-        <v>1302.789</v>
+        <v>916.27300000000002</v>
       </c>
       <c r="G20">
-        <v>3950.49</v>
+        <v>1929.4590000000001</v>
       </c>
       <c r="H20">
-        <v>8032.44</v>
+        <v>4245.2569999999996</v>
       </c>
       <c r="I20">
-        <v>3845.1289999999999</v>
+        <v>1539.7760000000001</v>
       </c>
       <c r="J20">
-        <v>4533.3289999999997</v>
+        <v>1861.85</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,161 +2386,161 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4693.1019999999999</v>
+        <v>1811.1590000000001</v>
       </c>
       <c r="O20">
-        <v>9675.6849999999995</v>
+        <v>3854.25</v>
       </c>
       <c r="P20">
-        <v>4533.3289999999997</v>
+        <v>1861.85</v>
       </c>
       <c r="Q20">
-        <v>1.7490000000000001</v>
+        <v>-2.5680000000000001</v>
       </c>
       <c r="R20">
-        <v>42133</v>
+        <v>38591</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>29640</v>
       </c>
       <c r="T20">
-        <v>-1643.2449999999999</v>
+        <v>391.00700000000001</v>
       </c>
       <c r="U20">
-        <v>153.28800000000001</v>
+        <v>74.81</v>
       </c>
       <c r="V20">
-        <v>522.57399999999996</v>
+        <v>244.572</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-409.21600000000001</v>
+        <v>-150.745</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1.004</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>309.07100000000003</v>
+        <v>206.61500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42245</v>
+        <v>38675</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>401.137</v>
+        <v>114.374</v>
       </c>
       <c r="D21">
-        <v>3290.404</v>
+        <v>1338.076</v>
       </c>
       <c r="E21">
-        <v>247.87200000000001</v>
+        <v>113.761</v>
       </c>
       <c r="F21">
-        <v>1727.548</v>
+        <v>655.529</v>
       </c>
       <c r="G21">
-        <v>3970.2939999999999</v>
+        <v>2000.758</v>
       </c>
       <c r="H21">
-        <v>8102.3490000000002</v>
+        <v>4339.8310000000001</v>
       </c>
       <c r="I21">
-        <v>3864.1680000000001</v>
+        <v>1514.5709999999999</v>
       </c>
       <c r="J21">
-        <v>4624.8760000000002</v>
+        <v>1789.7750000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-71.400000000000006</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4712.8729999999996</v>
+        <v>1844.8679999999999</v>
       </c>
       <c r="O21">
-        <v>9803.7389999999996</v>
+        <v>3818.549</v>
       </c>
       <c r="P21">
-        <v>4665.4040000000005</v>
+        <v>1789.7750000000001</v>
       </c>
       <c r="Q21">
-        <v>22.021000000000001</v>
+        <v>6.5679999999999996</v>
       </c>
       <c r="R21">
-        <v>42245</v>
+        <v>38675</v>
       </c>
       <c r="S21">
-        <v>46980</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>-1701.39</v>
+        <v>521.28200000000004</v>
       </c>
       <c r="U21">
-        <v>175.309</v>
+        <v>81.378</v>
       </c>
       <c r="V21">
-        <v>526.01099999999997</v>
+        <v>127.663</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-312.79199999999997</v>
+        <v>-63.206000000000003</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-0.24099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>401.137</v>
+        <v>114.374</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42329</v>
+        <v>38759</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>258.11200000000002</v>
+        <v>97.022000000000006</v>
       </c>
       <c r="D22">
-        <v>2386.0430000000001</v>
+        <v>1253.8150000000001</v>
       </c>
       <c r="E22">
-        <v>248.12</v>
+        <v>124.267</v>
       </c>
       <c r="F22">
-        <v>1252.934</v>
+        <v>616.19000000000005</v>
       </c>
       <c r="G22">
-        <v>4053.8710000000001</v>
+        <v>2034.992</v>
       </c>
       <c r="H22">
-        <v>8217.5280000000002</v>
+        <v>4401.8530000000001</v>
       </c>
       <c r="I22">
-        <v>3889.8490000000002</v>
+        <v>1427.672</v>
       </c>
       <c r="J22">
-        <v>4754.1009999999997</v>
+        <v>1779.3</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,81 +2549,81 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-310.096</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4775.241</v>
+        <v>1794.8009999999999</v>
       </c>
       <c r="O22">
-        <v>9995.6489999999994</v>
+        <v>3760.6950000000002</v>
       </c>
       <c r="P22">
-        <v>4754.1009999999997</v>
+        <v>1779.3</v>
       </c>
       <c r="Q22">
-        <v>-9.8230000000000004</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="R22">
-        <v>42329</v>
+        <v>38759</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>-1778.1210000000001</v>
+        <v>641.15800000000002</v>
       </c>
       <c r="U22">
-        <v>165.48599999999999</v>
+        <v>81.372</v>
       </c>
       <c r="V22">
-        <v>347.00299999999999</v>
+        <v>71.484999999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-256.85599999999999</v>
+        <v>6.15</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-4.6630000000000003</v>
+        <v>-20.581</v>
       </c>
       <c r="AA22">
-        <v>258.11200000000002</v>
+        <v>97.022000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42413</v>
+        <v>38843</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>228.613</v>
+        <v>144.42699999999999</v>
       </c>
       <c r="D23">
-        <v>2257.192</v>
+        <v>1417.433</v>
       </c>
       <c r="E23">
-        <v>295.79199999999997</v>
+        <v>102.6</v>
       </c>
       <c r="F23">
-        <v>1190.596</v>
+        <v>704.04100000000005</v>
       </c>
       <c r="G23">
-        <v>4209.8130000000001</v>
+        <v>2040.376</v>
       </c>
       <c r="H23">
-        <v>8366.4140000000007</v>
+        <v>4442.9189999999999</v>
       </c>
       <c r="I23">
-        <v>3912.107</v>
+        <v>1442.1320000000001</v>
       </c>
       <c r="J23">
-        <v>4387.8109999999997</v>
+        <v>1825.125</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4994.6610000000001</v>
+        <v>1865.729</v>
       </c>
       <c r="O23">
-        <v>10107.727000000001</v>
+        <v>3874.3739999999998</v>
       </c>
       <c r="P23">
-        <v>4845.2150000000001</v>
+        <v>1825.125</v>
       </c>
       <c r="Q23">
-        <v>42.472000000000001</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="R23">
-        <v>42413</v>
+        <v>38843</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>-1741.3130000000001</v>
+        <v>568.54499999999996</v>
       </c>
       <c r="U23">
-        <v>207.958</v>
+        <v>83.968000000000004</v>
       </c>
       <c r="V23">
-        <v>215.41399999999999</v>
+        <v>237.143</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-63.262</v>
+        <v>-173.57499999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-0.55600000000000005</v>
+        <v>3.7909999999999999</v>
       </c>
       <c r="AA23">
-        <v>228.613</v>
+        <v>144.428</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42497</v>
+        <v>38955</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>327.51400000000001</v>
+        <v>213.452</v>
       </c>
       <c r="D24">
-        <v>2593.672</v>
+        <v>1939.03</v>
       </c>
       <c r="E24">
-        <v>294.529</v>
+        <v>80.363</v>
       </c>
       <c r="F24">
-        <v>1370.4580000000001</v>
+        <v>962.76099999999997</v>
       </c>
       <c r="G24">
-        <v>4225.4859999999999</v>
+        <v>2118.9270000000001</v>
       </c>
       <c r="H24">
-        <v>8464.1049999999996</v>
+        <v>4526.3059999999996</v>
       </c>
       <c r="I24">
-        <v>3991.03</v>
+        <v>1699.6669999999999</v>
       </c>
       <c r="J24">
-        <v>4953.6970000000001</v>
+        <v>1857.1569999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4647.5889999999999</v>
+        <v>2054.5680000000002</v>
       </c>
       <c r="O24">
-        <v>10327.387000000001</v>
+        <v>4056.7779999999998</v>
       </c>
       <c r="P24">
-        <v>4953.6970000000001</v>
+        <v>1857.1569999999999</v>
       </c>
       <c r="Q24">
-        <v>5.4219999999999997</v>
+        <v>7.59</v>
       </c>
       <c r="R24">
-        <v>42497</v>
+        <v>38955</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>30210</v>
       </c>
       <c r="T24">
-        <v>-1863.2819999999999</v>
+        <v>469.52800000000002</v>
       </c>
       <c r="U24">
-        <v>213.38</v>
+        <v>91.558000000000007</v>
       </c>
       <c r="V24">
-        <v>532.81200000000001</v>
+        <v>386.45600000000002</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-417.161</v>
+        <v>-307.04500000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-4.1589999999999998</v>
+        <v>2.202</v>
       </c>
       <c r="AA24">
-        <v>327.51499999999999</v>
+        <v>213.452</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42609</v>
+        <v>39039</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>426.76799999999997</v>
+        <v>123.889</v>
       </c>
       <c r="D25">
-        <v>3398.7689999999998</v>
+        <v>1393.069</v>
       </c>
       <c r="E25">
-        <v>287.68</v>
+        <v>73.831999999999994</v>
       </c>
       <c r="F25">
-        <v>1794.748</v>
+        <v>685.29499999999996</v>
       </c>
       <c r="G25">
-        <v>4239.5730000000003</v>
+        <v>2157.2939999999999</v>
       </c>
       <c r="H25">
-        <v>8599.7870000000003</v>
+        <v>4611.6850000000004</v>
       </c>
       <c r="I25">
-        <v>4095.8539999999998</v>
+        <v>1649.633</v>
       </c>
       <c r="J25">
-        <v>4924.1189999999997</v>
+        <v>1858.921</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2678,81 +2798,81 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-5.9560000000000004</v>
       </c>
       <c r="N25">
-        <v>4690.32</v>
+        <v>2047.289</v>
       </c>
       <c r="O25">
-        <v>10387.325000000001</v>
+        <v>4073.8470000000002</v>
       </c>
       <c r="P25">
-        <v>4968.9530000000004</v>
+        <v>1885.021</v>
       </c>
       <c r="Q25">
-        <v>-23.646000000000001</v>
+        <v>-18.199000000000002</v>
       </c>
       <c r="R25">
-        <v>42609</v>
+        <v>39039</v>
       </c>
       <c r="S25">
-        <v>49560</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>-1787.538</v>
+        <v>537.83799999999997</v>
       </c>
       <c r="U25">
-        <v>189.73400000000001</v>
+        <v>73.358999999999995</v>
       </c>
       <c r="V25">
-        <v>545.83100000000002</v>
+        <v>111.96299999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-379.24900000000002</v>
+        <v>-59.265999999999998</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="Z25">
-        <v>-0.32</v>
+        <v>-18.98</v>
       </c>
       <c r="AA25">
-        <v>426.76799999999997</v>
+        <v>123.889</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42693</v>
+        <v>39123</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>278.125</v>
+        <v>103.01600000000001</v>
       </c>
       <c r="D26">
-        <v>2467.8449999999998</v>
+        <v>1300.357</v>
       </c>
       <c r="E26">
-        <v>270.76799999999997</v>
+        <v>59.914999999999999</v>
       </c>
       <c r="F26">
-        <v>1301.5419999999999</v>
+        <v>639.21199999999999</v>
       </c>
       <c r="G26">
-        <v>4368.6859999999997</v>
+        <v>2180.348</v>
       </c>
       <c r="H26">
-        <v>8742.5439999999999</v>
+        <v>4646.5060000000003</v>
       </c>
       <c r="I26">
-        <v>4162.3159999999998</v>
+        <v>1662.989</v>
       </c>
       <c r="J26">
-        <v>4997.4459999999999</v>
+        <v>1854.3040000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,81 +2881,81 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-11.012</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>4850.2190000000001</v>
+        <v>2080.3789999999999</v>
       </c>
       <c r="O26">
-        <v>10637.769</v>
+        <v>4102.9160000000002</v>
       </c>
       <c r="P26">
-        <v>4997.4459999999999</v>
+        <v>1880.0039999999999</v>
       </c>
       <c r="Q26">
-        <v>5.8040000000000003</v>
+        <v>12.702999999999999</v>
       </c>
       <c r="R26">
-        <v>42693</v>
+        <v>39123</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>-1895.2249999999999</v>
+        <v>543.59</v>
       </c>
       <c r="U26">
-        <v>195.53800000000001</v>
+        <v>86.061999999999998</v>
       </c>
       <c r="V26">
-        <v>406.5</v>
+        <v>168.49799999999999</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-297.92599999999999</v>
+        <v>-108.285</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z26">
-        <v>-2.0910000000000002</v>
+        <v>2.698</v>
       </c>
       <c r="AA26">
-        <v>278.125</v>
+        <v>103.01600000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42777</v>
+        <v>39207</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>237.14500000000001</v>
+        <v>151.59200000000001</v>
       </c>
       <c r="D27">
-        <v>2289.2190000000001</v>
+        <v>1473.671</v>
       </c>
       <c r="E27">
-        <v>246.88200000000001</v>
+        <v>52.741999999999997</v>
       </c>
       <c r="F27">
-        <v>1205.5360000000001</v>
+        <v>735.399</v>
       </c>
       <c r="G27">
-        <v>4492.7669999999998</v>
+        <v>2230.7809999999999</v>
       </c>
       <c r="H27">
-        <v>8902.6299999999992</v>
+        <v>4722.4979999999996</v>
       </c>
       <c r="I27">
-        <v>4114.96</v>
+        <v>1686.8140000000001</v>
       </c>
       <c r="J27">
-        <v>5151.8620000000001</v>
+        <v>1938.942</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>4784.2719999999999</v>
+        <v>2160.15</v>
       </c>
       <c r="O27">
-        <v>10730.07</v>
+        <v>4263.1419999999998</v>
       </c>
       <c r="P27">
-        <v>5301.6639999999998</v>
+        <v>1967.5419999999999</v>
       </c>
       <c r="Q27">
-        <v>15.111000000000001</v>
+        <v>-3.4889999999999999</v>
       </c>
       <c r="R27">
-        <v>42777</v>
+        <v>39207</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>-1827.44</v>
+        <v>459.35599999999999</v>
       </c>
       <c r="U27">
-        <v>210.649</v>
+        <v>82.572999999999993</v>
       </c>
       <c r="V27">
-        <v>157.398</v>
+        <v>203.691</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-38.642000000000003</v>
+        <v>-157.99700000000001</v>
       </c>
       <c r="Y27">
-        <v>149.80199999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="Z27">
-        <v>14.766</v>
+        <v>4.3529999999999998</v>
       </c>
       <c r="AA27">
-        <v>237.14500000000001</v>
+        <v>151.59100000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42861</v>
+        <v>39319</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>331.69900000000001</v>
+        <v>217.17500000000001</v>
       </c>
       <c r="D28">
-        <v>2619.0070000000001</v>
+        <v>2002.7070000000001</v>
       </c>
       <c r="E28">
-        <v>276.11</v>
+        <v>59.875999999999998</v>
       </c>
       <c r="F28">
-        <v>1378.4179999999999</v>
+        <v>1004.343</v>
       </c>
       <c r="G28">
-        <v>4507.2489999999998</v>
+        <v>2270.4549999999999</v>
       </c>
       <c r="H28">
-        <v>9028.2639999999992</v>
+        <v>4804.7089999999998</v>
       </c>
       <c r="I28">
-        <v>4140.6899999999996</v>
+        <v>1870.6679999999999</v>
       </c>
       <c r="J28">
-        <v>5152.8429999999998</v>
+        <v>1935.6179999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4793.54</v>
+        <v>2285.895</v>
       </c>
       <c r="O28">
-        <v>10742.477999999999</v>
+        <v>4401.509</v>
       </c>
       <c r="P28">
-        <v>5304.8040000000001</v>
+        <v>1990.7180000000001</v>
       </c>
       <c r="Q28">
-        <v>16.492000000000001</v>
+        <v>4.0810000000000004</v>
       </c>
       <c r="R28">
-        <v>42861</v>
+        <v>39319</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>30800</v>
       </c>
       <c r="T28">
-        <v>-1714.2139999999999</v>
+        <v>403.2</v>
       </c>
       <c r="U28">
-        <v>227.14099999999999</v>
+        <v>86.653999999999996</v>
       </c>
       <c r="V28">
-        <v>445.33199999999999</v>
+        <v>361.04199999999997</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-275.27699999999999</v>
+        <v>-295.83499999999998</v>
       </c>
       <c r="Y28">
-        <v>151.96100000000001</v>
+        <v>39.085000000000001</v>
       </c>
       <c r="Z28">
-        <v>-15.042</v>
+        <v>4.2350000000000003</v>
       </c>
       <c r="AA28">
-        <v>331.7</v>
+        <v>217.17500000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42973</v>
+        <v>39403</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>433.9</v>
+        <v>132.51599999999999</v>
       </c>
       <c r="D29">
-        <v>3512.605</v>
+        <v>1455.655</v>
       </c>
       <c r="E29">
-        <v>280.733</v>
+        <v>53.9</v>
       </c>
       <c r="F29">
-        <v>1854.124</v>
+        <v>726.44799999999998</v>
       </c>
       <c r="G29">
-        <v>4611.2550000000001</v>
+        <v>2319.7370000000001</v>
       </c>
       <c r="H29">
-        <v>9259.7810000000009</v>
+        <v>4874.2169999999996</v>
       </c>
       <c r="I29">
-        <v>4168.9399999999996</v>
+        <v>1844.94</v>
       </c>
       <c r="J29">
-        <v>5081.2380000000003</v>
+        <v>2161.0700000000002</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,164 +3130,164 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-42.792000000000002</v>
       </c>
       <c r="N29">
-        <v>4766.3010000000004</v>
+        <v>2319.27</v>
       </c>
       <c r="O29">
-        <v>10688.157999999999</v>
+        <v>4703.1639999999998</v>
       </c>
       <c r="P29">
-        <v>5129.3720000000003</v>
+        <v>2161.0700000000002</v>
       </c>
       <c r="Q29">
-        <v>66.129000000000005</v>
+        <v>-6.8410000000000002</v>
       </c>
       <c r="R29">
-        <v>42973</v>
+        <v>39403</v>
       </c>
       <c r="S29">
-        <v>53070</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>-1428.377</v>
+        <v>171.053</v>
       </c>
       <c r="U29">
-        <v>293.27</v>
+        <v>79.813000000000002</v>
       </c>
       <c r="V29">
-        <v>561.38199999999995</v>
+        <v>171.04499999999999</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-302.48399999999998</v>
+        <v>-118.22499999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-0.35099999999999998</v>
+        <v>-15.166</v>
       </c>
       <c r="AA29">
-        <v>433.9</v>
+        <v>132.51599999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43057</v>
+        <v>39487</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>281.00299999999999</v>
+        <v>106.705</v>
       </c>
       <c r="D30">
-        <v>2589.1309999999999</v>
+        <v>1339.2439999999999</v>
       </c>
       <c r="E30">
-        <v>272.45</v>
+        <v>65.27</v>
       </c>
       <c r="F30">
-        <v>1365.848</v>
+        <v>667.79499999999996</v>
       </c>
       <c r="G30">
-        <v>4717.192</v>
+        <v>2356.6439999999998</v>
       </c>
       <c r="H30">
-        <v>9397.0840000000007</v>
+        <v>4938.3969999999999</v>
       </c>
       <c r="I30">
-        <v>4326.7370000000001</v>
+        <v>1842.951</v>
       </c>
       <c r="J30">
-        <v>4982.9840000000004</v>
+        <v>2095</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>5067.6400000000003</v>
+        <v>2325.2220000000002</v>
       </c>
       <c r="O30">
-        <v>10922.183000000001</v>
+        <v>4656.1639999999998</v>
       </c>
       <c r="P30">
-        <v>4982.9840000000004</v>
+        <v>2095</v>
       </c>
       <c r="Q30">
-        <v>-35.593000000000004</v>
+        <v>13.651999999999999</v>
       </c>
       <c r="R30">
-        <v>43057</v>
+        <v>39487</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>-1525.0989999999999</v>
+        <v>282.233</v>
       </c>
       <c r="U30">
-        <v>257.67700000000002</v>
+        <v>93.465000000000003</v>
       </c>
       <c r="V30">
-        <v>565.01700000000005</v>
+        <v>125.934</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-463.70400000000001</v>
+        <v>-65.918000000000006</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-24.728999999999999</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="AA30">
-        <v>281.00299999999999</v>
+        <v>106.70399999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43141</v>
+        <v>39571</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>289.52999999999997</v>
+        <v>158.63900000000001</v>
       </c>
       <c r="D31">
-        <v>2413.0259999999998</v>
+        <v>1517.2929999999999</v>
       </c>
       <c r="E31">
-        <v>282.53199999999998</v>
+        <v>74.965000000000003</v>
       </c>
       <c r="F31">
-        <v>1277.046</v>
+        <v>762.00599999999997</v>
       </c>
       <c r="G31">
-        <v>4826.3069999999998</v>
+        <v>2386.9380000000001</v>
       </c>
       <c r="H31">
-        <v>9403.7189999999991</v>
+        <v>5026.9040000000005</v>
       </c>
       <c r="I31">
-        <v>4365.6660000000002</v>
+        <v>1873.7059999999999</v>
       </c>
       <c r="J31">
-        <v>5043.5410000000002</v>
+        <v>1932</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>4947.2280000000001</v>
+        <v>2383.9670000000001</v>
       </c>
       <c r="O31">
-        <v>10734.266</v>
+        <v>4571.0749999999998</v>
       </c>
       <c r="P31">
-        <v>5043.5410000000002</v>
+        <v>1932</v>
       </c>
       <c r="Q31">
-        <v>30.844999999999999</v>
+        <v>-11.811</v>
       </c>
       <c r="R31">
-        <v>43141</v>
+        <v>39571</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-1330.547</v>
+        <v>455.82900000000001</v>
       </c>
       <c r="U31">
-        <v>288.52199999999999</v>
+        <v>81.653999999999996</v>
       </c>
       <c r="V31">
-        <v>187.32599999999999</v>
+        <v>204.488</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-60.603000000000002</v>
+        <v>-160.715</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>7.0030000000000001</v>
+        <v>2.6309999999999998</v>
       </c>
       <c r="AA31">
-        <v>289.52999999999997</v>
+        <v>158.63800000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43225</v>
+        <v>39690</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>366.721</v>
+        <v>243.74600000000001</v>
       </c>
       <c r="D32">
-        <v>2660.152</v>
+        <v>2210.5140000000001</v>
       </c>
       <c r="E32">
-        <v>261.29899999999998</v>
+        <v>71.241</v>
       </c>
       <c r="F32">
-        <v>1422.9739999999999</v>
+        <v>1111.8119999999999</v>
       </c>
       <c r="G32">
-        <v>4671.277</v>
+        <v>2586.3009999999999</v>
       </c>
       <c r="H32">
-        <v>9301.7690000000002</v>
+        <v>5257.1120000000001</v>
       </c>
       <c r="I32">
-        <v>4296.6769999999997</v>
+        <v>2043.271</v>
       </c>
       <c r="J32">
-        <v>4954.6970000000001</v>
+        <v>2250</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4918.3360000000002</v>
+        <v>2519.3200000000002</v>
       </c>
       <c r="O32">
-        <v>10663.371999999999</v>
+        <v>5027.4250000000002</v>
       </c>
       <c r="P32">
-        <v>4954.6970000000001</v>
+        <v>2314.1170000000002</v>
       </c>
       <c r="Q32">
-        <v>-70.135999999999996</v>
+        <v>160.80699999999999</v>
       </c>
       <c r="R32">
-        <v>43225</v>
+        <v>39690</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>32490</v>
       </c>
       <c r="T32">
-        <v>-1361.6030000000001</v>
+        <v>229.68700000000001</v>
       </c>
       <c r="U32">
-        <v>218.386</v>
+        <v>242.46100000000001</v>
       </c>
       <c r="V32">
-        <v>504.01299999999998</v>
+        <v>419.63299999999998</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-500.86700000000002</v>
+        <v>-177.82400000000001</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="Z32">
-        <v>7.048</v>
+        <v>5.2060000000000004</v>
       </c>
       <c r="AA32">
-        <v>366.721</v>
+        <v>243.74600000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43337</v>
+        <v>39774</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>400.28199999999998</v>
+        <v>131.37100000000001</v>
       </c>
       <c r="D33">
-        <v>3558.768</v>
+        <v>1478.2919999999999</v>
       </c>
       <c r="E33">
-        <v>258.13600000000002</v>
+        <v>67.44</v>
       </c>
       <c r="F33">
-        <v>1907.8789999999999</v>
+        <v>741.19100000000003</v>
       </c>
       <c r="G33">
-        <v>4635.8689999999997</v>
+        <v>2462.145</v>
       </c>
       <c r="H33">
-        <v>9346.98</v>
+        <v>5113.2139999999999</v>
       </c>
       <c r="I33">
-        <v>4409.3720000000003</v>
+        <v>2002.1279999999999</v>
       </c>
       <c r="J33">
-        <v>5005.93</v>
+        <v>2268.1999999999998</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3342,81 +3462,81 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-4.6790000000000003</v>
       </c>
       <c r="N33">
-        <v>5028.6809999999996</v>
+        <v>2527.9769999999999</v>
       </c>
       <c r="O33">
-        <v>10867.334999999999</v>
+        <v>5053.2169999999996</v>
       </c>
       <c r="P33">
-        <v>5160.2299999999996</v>
+        <v>2268.1999999999998</v>
       </c>
       <c r="Q33">
-        <v>-0.56200000000000006</v>
+        <v>-156.70500000000001</v>
       </c>
       <c r="R33">
-        <v>43337</v>
+        <v>39774</v>
       </c>
       <c r="S33">
-        <v>54900</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>-1520.355</v>
+        <v>59.997</v>
       </c>
       <c r="U33">
-        <v>217.82400000000001</v>
+        <v>85.756</v>
       </c>
       <c r="V33">
-        <v>823.93600000000004</v>
+        <v>140.78399999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-606.98</v>
+        <v>-248.32</v>
       </c>
       <c r="Y33">
-        <v>102.01</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>-24.213999999999999</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="AA33">
-        <v>400.28199999999998</v>
+        <v>131.37100000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43421</v>
+        <v>39858</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>351.40600000000001</v>
+        <v>115.864</v>
       </c>
       <c r="D34">
-        <v>2641.7330000000002</v>
+        <v>1447.877</v>
       </c>
       <c r="E34">
-        <v>275.19400000000002</v>
+        <v>125.312</v>
       </c>
       <c r="F34">
-        <v>1417.4739999999999</v>
+        <v>719.298</v>
       </c>
       <c r="G34">
-        <v>4814.3289999999997</v>
+        <v>2580.8670000000002</v>
       </c>
       <c r="H34">
-        <v>9523.5810000000001</v>
+        <v>5235.085</v>
       </c>
       <c r="I34">
-        <v>4455.33</v>
+        <v>1974.7470000000001</v>
       </c>
       <c r="J34">
-        <v>5156.0370000000003</v>
+        <v>2690.7550000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,84 +3545,84 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-12.597</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>5168.1719999999996</v>
+        <v>2468.6819999999998</v>
       </c>
       <c r="O34">
-        <v>11182.197</v>
+        <v>5422.3869999999997</v>
       </c>
       <c r="P34">
-        <v>5156.0370000000003</v>
+        <v>2690.7550000000001</v>
       </c>
       <c r="Q34">
-        <v>34.262</v>
+        <v>22.216999999999999</v>
       </c>
       <c r="R34">
-        <v>43421</v>
+        <v>39858</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>-1658.616</v>
+        <v>-187.30199999999999</v>
       </c>
       <c r="U34">
-        <v>252.08600000000001</v>
+        <v>107.973</v>
       </c>
       <c r="V34">
-        <v>449.18200000000002</v>
+        <v>7.51</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-315.608</v>
+        <v>62.036000000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>5.6360000000000001</v>
+        <v>-2.3450000000000002</v>
       </c>
       <c r="AA34">
-        <v>351.40600000000001</v>
+        <v>115.864</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43505</v>
+        <v>39942</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>294.63799999999998</v>
+        <v>173.68799999999999</v>
       </c>
       <c r="D35">
-        <v>2450.5680000000002</v>
+        <v>1658.16</v>
       </c>
       <c r="E35">
-        <v>298.31900000000002</v>
+        <v>140.75399999999999</v>
       </c>
       <c r="F35">
-        <v>1325.107</v>
+        <v>832.90700000000004</v>
       </c>
       <c r="G35">
-        <v>4997.0720000000001</v>
+        <v>2607.9839999999999</v>
       </c>
       <c r="H35">
-        <v>9745.0949999999993</v>
+        <v>5296.1760000000004</v>
       </c>
       <c r="I35">
-        <v>4669.5680000000002</v>
+        <v>2098.308</v>
       </c>
       <c r="J35">
-        <v>5111.201</v>
+        <v>1949.3</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>156.6</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>5334.3029999999999</v>
+        <v>3135.96</v>
       </c>
       <c r="O35">
-        <v>11339.457</v>
+        <v>5341.2950000000001</v>
       </c>
       <c r="P35">
-        <v>5111.201</v>
+        <v>2412.0219999999999</v>
       </c>
       <c r="Q35">
-        <v>-56.420999999999999</v>
+        <v>-13.686</v>
       </c>
       <c r="R35">
-        <v>43505</v>
+        <v>39942</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-1594.3620000000001</v>
+        <v>-45.119</v>
       </c>
       <c r="U35">
-        <v>195.66499999999999</v>
+        <v>94.287000000000006</v>
       </c>
       <c r="V35">
-        <v>367.887</v>
+        <v>386.726</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-345.94</v>
+        <v>-338.73399999999998</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>7.8410000000000002</v>
+        <v>-2.0750000000000002</v>
       </c>
       <c r="AA35">
-        <v>294.63799999999998</v>
+        <v>173.68899999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43589</v>
+        <v>40054</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>405.94799999999998</v>
+        <v>236.126</v>
       </c>
       <c r="D36">
-        <v>2783.0059999999999</v>
+        <v>2232.4940000000001</v>
       </c>
       <c r="E36">
-        <v>281.61</v>
+        <v>126.514</v>
       </c>
       <c r="F36">
-        <v>1492.02</v>
+        <v>1123.0530000000001</v>
       </c>
       <c r="G36">
-        <v>4971.34</v>
+        <v>2561.73</v>
       </c>
       <c r="H36">
-        <v>9773.74</v>
+        <v>5318.4049999999997</v>
       </c>
       <c r="I36">
-        <v>4693.0940000000001</v>
+        <v>2118.7460000000001</v>
       </c>
       <c r="J36">
-        <v>5151.9170000000004</v>
+        <v>2726.9</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>5316.8890000000001</v>
+        <v>2706.752</v>
       </c>
       <c r="O36">
-        <v>11363.253000000001</v>
+        <v>5751.4790000000003</v>
       </c>
       <c r="P36">
-        <v>5151.9170000000004</v>
+        <v>2781.6640000000002</v>
       </c>
       <c r="Q36">
-        <v>-21.606999999999999</v>
+        <v>-1.581</v>
       </c>
       <c r="R36">
-        <v>43589</v>
+        <v>40054</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="T36">
-        <v>-1589.5129999999999</v>
+        <v>-433.07400000000001</v>
       </c>
       <c r="U36">
-        <v>174.05799999999999</v>
+        <v>92.706000000000003</v>
       </c>
       <c r="V36">
-        <v>469.56599999999997</v>
+        <v>388.78800000000001</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-381.92899999999997</v>
+        <v>-281.87799999999999</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>38.029000000000003</v>
       </c>
       <c r="Z36">
-        <v>8.7200000000000006</v>
+        <v>2.2930000000000001</v>
       </c>
       <c r="AA36">
-        <v>405.94900000000001</v>
+        <v>236.126</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>40138</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>565.22900000000004</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="D37">
-        <v>3988.4360000000001</v>
+        <v>1589.2439999999999</v>
       </c>
       <c r="E37">
-        <v>308.995</v>
+        <v>142.721</v>
       </c>
       <c r="F37">
-        <v>2130.4</v>
+        <v>799.92399999999998</v>
       </c>
       <c r="G37">
-        <v>5028.6850000000004</v>
+        <v>2617.9409999999998</v>
       </c>
       <c r="H37">
-        <v>9895.9130000000005</v>
+        <v>5385.8230000000003</v>
       </c>
       <c r="I37">
-        <v>4864.9120000000003</v>
+        <v>2187.3470000000002</v>
       </c>
       <c r="J37">
-        <v>5206.3440000000001</v>
+        <v>2739.5</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3674,81 +3794,81 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-4.492</v>
       </c>
       <c r="N37">
-        <v>5512.1409999999996</v>
+        <v>2804.38</v>
       </c>
       <c r="O37">
-        <v>11609.763999999999</v>
+        <v>5869.7879999999996</v>
       </c>
       <c r="P37">
-        <v>5386.2489999999998</v>
+        <v>2739.5</v>
       </c>
       <c r="Q37">
-        <v>2.242</v>
+        <v>-13.103</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>40138</v>
       </c>
       <c r="S37">
-        <v>55680</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>-1713.8510000000001</v>
+        <v>-483.96499999999997</v>
       </c>
       <c r="U37">
-        <v>176.3</v>
+        <v>79.602999999999994</v>
       </c>
       <c r="V37">
-        <v>841.87800000000004</v>
+        <v>230.881</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-630.61099999999999</v>
+        <v>-191.86500000000001</v>
       </c>
       <c r="Y37">
-        <v>123.65900000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-24.594999999999999</v>
+        <v>-0.878</v>
       </c>
       <c r="AA37">
-        <v>565.22900000000004</v>
+        <v>143.30000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43792</v>
+        <v>40222</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>350.33800000000002</v>
+        <v>123.333</v>
       </c>
       <c r="D38">
-        <v>2793.038</v>
+        <v>1506.2249999999999</v>
       </c>
       <c r="E38">
-        <v>333.24599999999998</v>
+        <v>147.46600000000001</v>
       </c>
       <c r="F38">
-        <v>1501.068</v>
+        <v>753.73599999999999</v>
       </c>
       <c r="G38">
-        <v>5156.9750000000004</v>
+        <v>2648.7130000000002</v>
       </c>
       <c r="H38">
-        <v>12700.456</v>
+        <v>5424.9920000000002</v>
       </c>
       <c r="I38">
-        <v>4922.1480000000001</v>
+        <v>2144.9949999999999</v>
       </c>
       <c r="J38">
-        <v>5287.3239999999996</v>
+        <v>2774.7</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3877,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-14.331</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>5868.2359999999999</v>
+        <v>2749.3240000000001</v>
       </c>
       <c r="O38">
-        <v>14476.546</v>
+        <v>5846.6629999999996</v>
       </c>
       <c r="P38">
-        <v>8222.366</v>
+        <v>2774.7</v>
       </c>
       <c r="Q38">
-        <v>-18.210999999999999</v>
+        <v>25.558</v>
       </c>
       <c r="R38">
-        <v>43792</v>
+        <v>40222</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>-1776.09</v>
+        <v>-421.67099999999999</v>
       </c>
       <c r="U38">
-        <v>158.089</v>
+        <v>105.161</v>
       </c>
       <c r="V38">
-        <v>447.10199999999998</v>
+        <v>118.027</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-375.80799999999999</v>
+        <v>-35.520000000000003</v>
       </c>
       <c r="Y38">
-        <v>2644.6849999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>10.317</v>
+        <v>-1.5740000000000001</v>
       </c>
       <c r="AA38">
-        <v>350.33800000000002</v>
+        <v>123.333</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43876</v>
+        <v>40306</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>299.28199999999998</v>
+        <v>202.745</v>
       </c>
       <c r="D39">
-        <v>2513.663</v>
+        <v>1821.99</v>
       </c>
       <c r="E39">
-        <v>340.28</v>
+        <v>121.325</v>
       </c>
       <c r="F39">
-        <v>1366.0630000000001</v>
+        <v>923.12099999999998</v>
       </c>
       <c r="G39">
-        <v>5300.5469999999996</v>
+        <v>2578.9479999999999</v>
       </c>
       <c r="H39">
-        <v>12863.749</v>
+        <v>5452.77</v>
       </c>
       <c r="I39">
-        <v>4869.9139999999998</v>
+        <v>2235.7660000000001</v>
       </c>
       <c r="J39">
-        <v>5451.4709999999995</v>
+        <v>2698.5</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>5779.56</v>
+        <v>2872.076</v>
       </c>
       <c r="O39">
-        <v>14574.868</v>
+        <v>5914.72</v>
       </c>
       <c r="P39">
-        <v>8376.8629999999994</v>
+        <v>2698.5</v>
       </c>
       <c r="Q39">
-        <v>-5.1189999999999998</v>
+        <v>-9.3989999999999991</v>
       </c>
       <c r="R39">
-        <v>43876</v>
+        <v>40306</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-1711.1189999999999</v>
+        <v>-461.95</v>
       </c>
       <c r="U39">
-        <v>152.97</v>
+        <v>95.762</v>
       </c>
       <c r="V39">
-        <v>204.542</v>
+        <v>392.09899999999999</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-126.95699999999999</v>
+        <v>-334.16300000000001</v>
       </c>
       <c r="Y39">
-        <v>2632.0219999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>4.1479999999999997</v>
+        <v>-0.71</v>
       </c>
       <c r="AA39">
-        <v>299.28199999999998</v>
+        <v>202.745</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43960</v>
+        <v>40418</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>342.89499999999998</v>
+        <v>268.93299999999999</v>
       </c>
       <c r="D40">
-        <v>2779.299</v>
+        <v>2445.1590000000001</v>
       </c>
       <c r="E40">
-        <v>266.92</v>
+        <v>125.80200000000001</v>
       </c>
       <c r="F40">
-        <v>1490.6479999999999</v>
+        <v>1234.963</v>
       </c>
       <c r="G40">
-        <v>5397.9930000000004</v>
+        <v>2611.8209999999999</v>
       </c>
       <c r="H40">
-        <v>12902.130999999999</v>
+        <v>5571.5940000000001</v>
       </c>
       <c r="I40">
-        <v>4806.3289999999997</v>
+        <v>2433.0500000000002</v>
       </c>
       <c r="J40">
-        <v>5418.2719999999999</v>
+        <v>2882.3</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>26.186</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,212 +4046,3532 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5769.076</v>
+        <v>3063.96</v>
       </c>
       <c r="O40">
-        <v>14534.867</v>
+        <v>6310.3590000000004</v>
       </c>
       <c r="P40">
-        <v>8320.5869999999995</v>
+        <v>2996.7660000000001</v>
       </c>
       <c r="Q40">
-        <v>356.14800000000002</v>
+        <v>2.5179999999999998</v>
       </c>
       <c r="R40">
-        <v>43960</v>
+        <v>40418</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>35280</v>
       </c>
       <c r="T40">
-        <v>-1632.7360000000001</v>
+        <v>-738.76499999999999</v>
       </c>
       <c r="U40">
-        <v>509.11799999999999</v>
+        <v>98.28</v>
       </c>
       <c r="V40">
-        <v>651.46400000000006</v>
+        <v>455.245</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-209.387</v>
+        <v>-321.94499999999999</v>
       </c>
       <c r="Y40">
-        <v>2607.538</v>
+        <v>66.332999999999998</v>
       </c>
       <c r="Z40">
-        <v>9.6999999999999993</v>
+        <v>-0.374</v>
       </c>
       <c r="AA40">
-        <v>342.89600000000002</v>
+        <v>268.93299999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44072</v>
+        <v>40502</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>740.45699999999999</v>
+        <v>172.07599999999999</v>
       </c>
       <c r="D41">
-        <v>4545.9679999999998</v>
+        <v>1791.662</v>
       </c>
       <c r="E41">
-        <v>364.774</v>
+        <v>116.645</v>
       </c>
       <c r="F41">
-        <v>2412.9749999999999</v>
+        <v>907.74800000000005</v>
       </c>
       <c r="G41">
-        <v>6811.8720000000003</v>
+        <v>2660.5639999999999</v>
       </c>
       <c r="H41">
-        <v>14423.871999999999</v>
+        <v>5640.4889999999996</v>
       </c>
       <c r="I41">
-        <v>5156.3239999999996</v>
+        <v>2519.9430000000002</v>
       </c>
       <c r="J41">
-        <v>5513.3710000000001</v>
+        <v>2845.7</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>33.517000000000003</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-541.73099999999999</v>
       </c>
       <c r="N41">
-        <v>6283.0910000000003</v>
+        <v>3244.8870000000002</v>
       </c>
       <c r="O41">
-        <v>15301.849</v>
+        <v>6457.6570000000002</v>
       </c>
       <c r="P41">
-        <v>8462.1299999999992</v>
+        <v>2964.2359999999999</v>
       </c>
       <c r="Q41">
-        <v>1241.6969999999999</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="R41">
-        <v>44072</v>
+        <v>40502</v>
       </c>
       <c r="S41">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>-877.97699999999998</v>
+        <v>-817.16800000000001</v>
       </c>
       <c r="U41">
-        <v>1750.8150000000001</v>
+        <v>98.013000000000005</v>
       </c>
       <c r="V41">
-        <v>1417</v>
+        <v>357.35300000000001</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>68.516000000000005</v>
+        <v>-310.15199999999999</v>
       </c>
       <c r="Y41">
-        <v>2657.415</v>
+        <v>85.019000000000005</v>
       </c>
       <c r="Z41">
-        <v>-76.066999999999993</v>
+        <v>-2.5859999999999999</v>
       </c>
       <c r="AA41">
-        <v>740.45699999999999</v>
+        <v>172.07599999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44156</v>
+        <v>40586</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>148.05500000000001</v>
+      </c>
+      <c r="D42">
+        <v>1660.9459999999999</v>
+      </c>
+      <c r="E42">
+        <v>140.227</v>
+      </c>
+      <c r="F42">
+        <v>845.61099999999999</v>
+      </c>
+      <c r="G42">
+        <v>2738.1149999999998</v>
+      </c>
+      <c r="H42">
+        <v>5765.6030000000001</v>
+      </c>
+      <c r="I42">
+        <v>2524.5390000000002</v>
+      </c>
+      <c r="J42">
+        <v>3208.3</v>
+      </c>
+      <c r="K42">
+        <v>40.93</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3225.136</v>
+      </c>
+      <c r="O42">
+        <v>6804.0150000000003</v>
+      </c>
+      <c r="P42">
+        <v>3331.078</v>
+      </c>
+      <c r="Q42">
+        <v>9.8680000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40586</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>-1038.412</v>
+      </c>
+      <c r="U42">
+        <v>107.881</v>
+      </c>
+      <c r="V42">
+        <v>83.756</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-12.662000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>81.847999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>-0.54100000000000004</v>
+      </c>
+      <c r="AA42">
+        <v>148.05600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40670</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>227.374</v>
+      </c>
+      <c r="D43">
+        <v>1978.3689999999999</v>
+      </c>
+      <c r="E43">
+        <v>136.369</v>
+      </c>
+      <c r="F43">
+        <v>1013.53</v>
+      </c>
+      <c r="G43">
+        <v>2806.529</v>
+      </c>
+      <c r="H43">
+        <v>5884.8779999999997</v>
+      </c>
+      <c r="I43">
+        <v>2710.0810000000001</v>
+      </c>
+      <c r="J43">
+        <v>3171.1</v>
+      </c>
+      <c r="K43">
+        <v>49.686</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3461.8429999999998</v>
+      </c>
+      <c r="O43">
+        <v>7004.4189999999999</v>
+      </c>
+      <c r="P43">
+        <v>3303.8130000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-7.5140000000000002</v>
+      </c>
+      <c r="R43">
+        <v>40670</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>-1119.5409999999999</v>
+      </c>
+      <c r="U43">
+        <v>100.367</v>
+      </c>
+      <c r="V43">
+        <v>455.78399999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-371.87299999999999</v>
+      </c>
+      <c r="Y43">
+        <v>83.027000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>227.37299999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40782</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>301.46899999999999</v>
+      </c>
+      <c r="D44">
+        <v>2641.9960000000001</v>
+      </c>
+      <c r="E44">
+        <v>140.69</v>
+      </c>
+      <c r="F44">
+        <v>1352.5740000000001</v>
+      </c>
+      <c r="G44">
+        <v>2792.4250000000002</v>
+      </c>
+      <c r="H44">
+        <v>5869.6019999999999</v>
+      </c>
+      <c r="I44">
+        <v>2755.8530000000001</v>
+      </c>
+      <c r="J44">
+        <v>3317.6</v>
+      </c>
+      <c r="K44">
+        <v>34.082000000000001</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3430.8960000000002</v>
+      </c>
+      <c r="O44">
+        <v>7123.8339999999998</v>
+      </c>
+      <c r="P44">
+        <v>3438.3380000000002</v>
+      </c>
+      <c r="Q44">
+        <v>-2.7610000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40782</v>
+      </c>
+      <c r="S44">
+        <v>37050</v>
+      </c>
+      <c r="T44">
+        <v>-1254.232</v>
+      </c>
+      <c r="U44">
+        <v>97.605999999999995</v>
+      </c>
+      <c r="V44">
+        <v>394.64499999999998</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-279.084</v>
+      </c>
+      <c r="Y44">
+        <v>61.36</v>
+      </c>
+      <c r="Z44">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>301.46899999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40866</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>191.125</v>
+      </c>
+      <c r="D45">
+        <v>1924.3409999999999</v>
+      </c>
+      <c r="E45">
+        <v>135.69499999999999</v>
+      </c>
+      <c r="F45">
+        <v>983.62699999999995</v>
+      </c>
+      <c r="G45">
+        <v>2842.6729999999998</v>
+      </c>
+      <c r="H45">
+        <v>5932.58</v>
+      </c>
+      <c r="I45">
+        <v>2843.741</v>
+      </c>
+      <c r="J45">
+        <v>3318.9</v>
+      </c>
+      <c r="K45">
+        <v>35.417000000000002</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-6.4480000000000004</v>
+      </c>
+      <c r="N45">
+        <v>3578.9659999999999</v>
+      </c>
+      <c r="O45">
+        <v>7279.6790000000001</v>
+      </c>
+      <c r="P45">
+        <v>3354.317</v>
+      </c>
+      <c r="Q45">
+        <v>-0.93</v>
+      </c>
+      <c r="R45">
+        <v>40866</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>-1347.0989999999999</v>
+      </c>
+      <c r="U45">
+        <v>96.676000000000002</v>
+      </c>
+      <c r="V45">
+        <v>342.29399999999998</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-280.69900000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-1.022</v>
+      </c>
+      <c r="AA45">
+        <v>191.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40950</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>166.93</v>
+      </c>
+      <c r="D46">
+        <v>1804.069</v>
+      </c>
+      <c r="E46">
+        <v>144.79</v>
+      </c>
+      <c r="F46">
+        <v>926.21500000000003</v>
+      </c>
+      <c r="G46">
+        <v>2908.5639999999999</v>
+      </c>
+      <c r="H46">
+        <v>6056.4639999999999</v>
+      </c>
+      <c r="I46">
+        <v>2824.873</v>
+      </c>
+      <c r="J46">
+        <v>3434.8</v>
+      </c>
+      <c r="K46">
+        <v>29.56</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3516.7890000000002</v>
+      </c>
+      <c r="O46">
+        <v>7351.9880000000003</v>
+      </c>
+      <c r="P46">
+        <v>3568.134</v>
+      </c>
+      <c r="Q46">
+        <v>6.5309999999999997</v>
+      </c>
+      <c r="R46">
+        <v>40950</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>-1295.5239999999999</v>
+      </c>
+      <c r="U46">
+        <v>103.20699999999999</v>
+      </c>
+      <c r="V46">
+        <v>118.92</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-45.561</v>
+      </c>
+      <c r="Y46">
+        <v>103.774</v>
+      </c>
+      <c r="Z46">
+        <v>-1.5449999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>166.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41034</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>248.58600000000001</v>
+      </c>
+      <c r="D47">
+        <v>2111.866</v>
+      </c>
+      <c r="E47">
+        <v>133.941</v>
+      </c>
+      <c r="F47">
+        <v>1089.799</v>
+      </c>
+      <c r="G47">
+        <v>2944.2719999999999</v>
+      </c>
+      <c r="H47">
+        <v>6148.8540000000003</v>
+      </c>
+      <c r="I47">
+        <v>2866.58</v>
+      </c>
+      <c r="J47">
+        <v>3599</v>
+      </c>
+      <c r="K47">
+        <v>7.3090000000000002</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3567.393</v>
+      </c>
+      <c r="O47">
+        <v>7565.683</v>
+      </c>
+      <c r="P47">
+        <v>3706.9960000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-0.107</v>
+      </c>
+      <c r="R47">
+        <v>41034</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>-1416.829</v>
+      </c>
+      <c r="U47">
+        <v>103.1</v>
+      </c>
+      <c r="V47">
+        <v>337.39299999999997</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-240.35300000000001</v>
+      </c>
+      <c r="Y47">
+        <v>100.687</v>
+      </c>
+      <c r="Z47">
+        <v>-1.2589999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>248.58600000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>323.73200000000003</v>
+      </c>
+      <c r="D48">
+        <v>2763.5859999999998</v>
+      </c>
+      <c r="E48">
+        <v>161.375</v>
+      </c>
+      <c r="F48">
+        <v>1432.395</v>
+      </c>
+      <c r="G48">
+        <v>2978.9459999999999</v>
+      </c>
+      <c r="H48">
+        <v>6265.6390000000001</v>
+      </c>
+      <c r="I48">
+        <v>2926.74</v>
+      </c>
+      <c r="J48">
+        <v>3718.3020000000001</v>
+      </c>
+      <c r="K48">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3655.5920000000001</v>
+      </c>
+      <c r="O48">
+        <v>7813.6639999999998</v>
+      </c>
+      <c r="P48">
+        <v>3870.4389999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="R48">
+        <v>41146</v>
+      </c>
+      <c r="S48">
+        <v>41300</v>
+      </c>
+      <c r="T48">
+        <v>-1548.0250000000001</v>
+      </c>
+      <c r="U48">
+        <v>103.093</v>
+      </c>
+      <c r="V48">
+        <v>425.37400000000002</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-276.82</v>
+      </c>
+      <c r="Y48">
+        <v>72.414000000000001</v>
+      </c>
+      <c r="Z48">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AA48">
+        <v>323.73200000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41230</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>203.452</v>
+      </c>
+      <c r="D49">
+        <v>1991.04</v>
+      </c>
+      <c r="E49">
+        <v>173.33799999999999</v>
+      </c>
+      <c r="F49">
+        <v>1031.866</v>
+      </c>
+      <c r="G49">
+        <v>3062.2910000000002</v>
+      </c>
+      <c r="H49">
+        <v>6398.0389999999998</v>
+      </c>
+      <c r="I49">
+        <v>3021.9160000000002</v>
+      </c>
+      <c r="J49">
+        <v>3802.7049999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>-304.85199999999998</v>
+      </c>
+      <c r="M49">
+        <v>-7.4740000000000002</v>
+      </c>
+      <c r="N49">
+        <v>3744.4920000000002</v>
+      </c>
+      <c r="O49">
+        <v>7989.4080000000004</v>
+      </c>
+      <c r="P49">
+        <v>3903.8490000000002</v>
+      </c>
+      <c r="Q49">
+        <v>-3.2290000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41230</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>-1591.3689999999999</v>
+      </c>
+      <c r="U49">
+        <v>99.864000000000004</v>
+      </c>
+      <c r="V49">
+        <v>318.25299999999999</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-235.85900000000001</v>
+      </c>
+      <c r="Y49">
+        <v>101.14400000000001</v>
+      </c>
+      <c r="Z49">
+        <v>-5.6230000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>203.452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41314</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>176.24600000000001</v>
+      </c>
+      <c r="D50">
+        <v>1855.1980000000001</v>
+      </c>
+      <c r="E50">
+        <v>160.41999999999999</v>
+      </c>
+      <c r="F50">
+        <v>961.98099999999999</v>
+      </c>
+      <c r="G50">
+        <v>3123.3679999999999</v>
+      </c>
+      <c r="H50">
+        <v>6662.1880000000001</v>
+      </c>
+      <c r="I50">
+        <v>3034.0169999999998</v>
+      </c>
+      <c r="J50">
+        <v>3513.2730000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4231.808</v>
+      </c>
+      <c r="O50">
+        <v>8212.2970000000005</v>
+      </c>
+      <c r="P50">
+        <v>4097.1750000000002</v>
+      </c>
+      <c r="Q50">
+        <v>15.683999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41314</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>-1550.1089999999999</v>
+      </c>
+      <c r="U50">
+        <v>115.548</v>
+      </c>
+      <c r="V50">
+        <v>192.59</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>26.792000000000002</v>
+      </c>
+      <c r="Y50">
+        <v>99.369</v>
+      </c>
+      <c r="Z50">
+        <v>-0.45300000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>176.24700000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41398</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>265.58300000000003</v>
+      </c>
+      <c r="D51">
+        <v>2205.8780000000002</v>
+      </c>
+      <c r="E51">
+        <v>155.55000000000001</v>
+      </c>
+      <c r="F51">
+        <v>1142.713</v>
+      </c>
+      <c r="G51">
+        <v>3178.3229999999999</v>
+      </c>
+      <c r="H51">
+        <v>6783.0410000000002</v>
+      </c>
+      <c r="I51">
+        <v>3116.5569999999998</v>
+      </c>
+      <c r="J51">
+        <v>4001.1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3836.049</v>
+      </c>
+      <c r="O51">
+        <v>8315.3829999999998</v>
+      </c>
+      <c r="P51">
+        <v>4105.8069999999998</v>
+      </c>
+      <c r="Q51">
+        <v>18.137</v>
+      </c>
+      <c r="R51">
+        <v>41398</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>-1532.3420000000001</v>
+      </c>
+      <c r="U51">
+        <v>133.685</v>
+      </c>
+      <c r="V51">
+        <v>385.02100000000002</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-283.745</v>
+      </c>
+      <c r="Y51">
+        <v>104.70699999999999</v>
+      </c>
+      <c r="Z51">
+        <v>-0.442</v>
+      </c>
+      <c r="AA51">
+        <v>265.58300000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>371.19900000000001</v>
+      </c>
+      <c r="D52">
+        <v>3095.4140000000002</v>
+      </c>
+      <c r="E52">
+        <v>171.63800000000001</v>
+      </c>
+      <c r="F52">
+        <v>1604.375</v>
+      </c>
+      <c r="G52">
+        <v>3278.0129999999999</v>
+      </c>
+      <c r="H52">
+        <v>6892.0889999999999</v>
+      </c>
+      <c r="I52">
+        <v>3307.5349999999999</v>
+      </c>
+      <c r="J52">
+        <v>4013.2669999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>4169.1499999999996</v>
+      </c>
+      <c r="O52">
+        <v>8579.4079999999994</v>
+      </c>
+      <c r="P52">
+        <v>4293.1710000000003</v>
+      </c>
+      <c r="Q52">
+        <v>8.5060000000000002</v>
+      </c>
+      <c r="R52">
+        <v>41517</v>
+      </c>
+      <c r="S52">
+        <v>41890</v>
+      </c>
+      <c r="T52">
+        <v>-1687.319</v>
+      </c>
+      <c r="U52">
+        <v>142.191</v>
+      </c>
+      <c r="V52">
+        <v>519.14700000000005</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-354.21</v>
+      </c>
+      <c r="Y52">
+        <v>73.924999999999997</v>
+      </c>
+      <c r="Z52">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AA52">
+        <v>371.19900000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41601</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>218.08699999999999</v>
+      </c>
+      <c r="D53">
+        <v>2093.578</v>
+      </c>
+      <c r="E53">
+        <v>173.114</v>
+      </c>
+      <c r="F53">
+        <v>1085.6969999999999</v>
+      </c>
+      <c r="G53">
+        <v>3370.2350000000001</v>
+      </c>
+      <c r="H53">
+        <v>7023.4229999999998</v>
+      </c>
+      <c r="I53">
+        <v>3407.2860000000001</v>
+      </c>
+      <c r="J53">
+        <v>4013.2440000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-21.702999999999999</v>
+      </c>
+      <c r="N53">
+        <v>4332.8249999999998</v>
+      </c>
+      <c r="O53">
+        <v>8744.643</v>
+      </c>
+      <c r="P53">
+        <v>4276.6629999999996</v>
+      </c>
+      <c r="Q53">
+        <v>-16.338999999999999</v>
+      </c>
+      <c r="R53">
+        <v>41601</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>-1721.22</v>
+      </c>
+      <c r="U53">
+        <v>125.852</v>
+      </c>
+      <c r="V53">
+        <v>357.34300000000002</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-290.78699999999998</v>
+      </c>
+      <c r="Y53">
+        <v>103.163</v>
+      </c>
+      <c r="Z53">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="AA53">
+        <v>218.08699999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41685</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>192.83</v>
+      </c>
+      <c r="D54">
+        <v>1990.4939999999999</v>
+      </c>
+      <c r="E54">
+        <v>191.11500000000001</v>
+      </c>
+      <c r="F54">
+        <v>1037.0350000000001</v>
+      </c>
+      <c r="G54">
+        <v>3538.498</v>
+      </c>
+      <c r="H54">
+        <v>7262.8919999999998</v>
+      </c>
+      <c r="I54">
+        <v>3477.6970000000001</v>
+      </c>
+      <c r="J54">
+        <v>4163.2439999999997</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4399.3100000000004</v>
+      </c>
+      <c r="O54">
+        <v>8973.1540000000005</v>
+      </c>
+      <c r="P54">
+        <v>4428.9080000000004</v>
+      </c>
+      <c r="Q54">
+        <v>13.903</v>
+      </c>
+      <c r="R54">
+        <v>41685</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>-1710.2619999999999</v>
+      </c>
+      <c r="U54">
+        <v>139.755</v>
+      </c>
+      <c r="V54">
+        <v>150.62899999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-45.941000000000003</v>
+      </c>
+      <c r="Y54">
+        <v>107.224</v>
+      </c>
+      <c r="Z54">
+        <v>-1.583</v>
+      </c>
+      <c r="AA54">
+        <v>192.83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41769</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>285.15699999999998</v>
+      </c>
+      <c r="D55">
+        <v>2341.5450000000001</v>
+      </c>
+      <c r="E55">
+        <v>190.84800000000001</v>
+      </c>
+      <c r="F55">
+        <v>1216.9580000000001</v>
+      </c>
+      <c r="G55">
+        <v>3587.8440000000001</v>
+      </c>
+      <c r="H55">
+        <v>7371.8019999999997</v>
+      </c>
+      <c r="I55">
+        <v>3574.9209999999998</v>
+      </c>
+      <c r="J55">
+        <v>4163.2439999999997</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>4603.9520000000002</v>
+      </c>
+      <c r="O55">
+        <v>9180.0319999999992</v>
+      </c>
+      <c r="P55">
+        <v>4484.6139999999996</v>
+      </c>
+      <c r="Q55">
+        <v>5.5940000000000003</v>
+      </c>
+      <c r="R55">
+        <v>41769</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>-1808.23</v>
+      </c>
+      <c r="U55">
+        <v>145.34899999999999</v>
+      </c>
+      <c r="V55">
+        <v>463.14600000000002</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-357.24299999999999</v>
+      </c>
+      <c r="Y55">
+        <v>106.214</v>
+      </c>
+      <c r="Z55">
+        <v>-1.752</v>
+      </c>
+      <c r="AA55">
+        <v>285.15699999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41881</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>373.67</v>
+      </c>
+      <c r="D56">
+        <v>3049.6959999999999</v>
+      </c>
+      <c r="E56">
+        <v>200.899</v>
+      </c>
+      <c r="F56">
+        <v>1595.2170000000001</v>
+      </c>
+      <c r="G56">
+        <v>3580.6120000000001</v>
+      </c>
+      <c r="H56">
+        <v>7497.1629999999996</v>
+      </c>
+      <c r="I56">
+        <v>3609.1990000000001</v>
+      </c>
+      <c r="J56">
+        <v>4142.1959999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>4541.0940000000001</v>
+      </c>
+      <c r="O56">
+        <v>9119.02</v>
+      </c>
+      <c r="P56">
+        <v>4359.6109999999999</v>
+      </c>
+      <c r="Q56">
+        <v>-20.864000000000001</v>
+      </c>
+      <c r="R56">
+        <v>41881</v>
+      </c>
+      <c r="S56">
+        <v>43320</v>
+      </c>
+      <c r="T56">
+        <v>-1621.857</v>
+      </c>
+      <c r="U56">
+        <v>124.485</v>
+      </c>
+      <c r="V56">
+        <v>370.11599999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-217.58600000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AA56">
+        <v>373.67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41965</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>238.31</v>
+      </c>
+      <c r="D57">
+        <v>2260.2640000000001</v>
+      </c>
+      <c r="E57">
+        <v>195.52099999999999</v>
+      </c>
+      <c r="F57">
+        <v>1176.6610000000001</v>
+      </c>
+      <c r="G57">
+        <v>3707.5810000000001</v>
+      </c>
+      <c r="H57">
+        <v>7717.1009999999997</v>
+      </c>
+      <c r="I57">
+        <v>3690.7539999999999</v>
+      </c>
+      <c r="J57">
+        <v>3862.8649999999998</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-9.1920000000000002</v>
+      </c>
+      <c r="N57">
+        <v>5090.9639999999999</v>
+      </c>
+      <c r="O57">
+        <v>9379.9110000000001</v>
+      </c>
+      <c r="P57">
+        <v>4546.9979999999996</v>
+      </c>
+      <c r="Q57">
+        <v>-7.2930000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41965</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>-1662.81</v>
+      </c>
+      <c r="U57">
+        <v>117.19199999999999</v>
+      </c>
+      <c r="V57">
+        <v>375.22800000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-201.16399999999999</v>
+      </c>
+      <c r="Y57">
+        <v>124.898</v>
+      </c>
+      <c r="Z57">
+        <v>-2.6139999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>238.31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42049</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>211.72300000000001</v>
+      </c>
+      <c r="D58">
+        <v>2143.6509999999998</v>
+      </c>
+      <c r="E58">
+        <v>196.65</v>
+      </c>
+      <c r="F58">
+        <v>1120.0329999999999</v>
+      </c>
+      <c r="G58">
+        <v>3913.8629999999998</v>
+      </c>
+      <c r="H58">
+        <v>7949.9650000000001</v>
+      </c>
+      <c r="I58">
+        <v>3716.5189999999998</v>
+      </c>
+      <c r="J58">
+        <v>4361.1440000000002</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>4623.3230000000003</v>
+      </c>
+      <c r="O58">
+        <v>9418.6440000000002</v>
+      </c>
+      <c r="P58">
+        <v>4574.0950000000003</v>
+      </c>
+      <c r="Q58">
+        <v>34.347000000000001</v>
+      </c>
+      <c r="R58">
+        <v>42049</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>-1468.6790000000001</v>
+      </c>
+      <c r="U58">
+        <v>151.53899999999999</v>
+      </c>
+      <c r="V58">
+        <v>101.31</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>26.47</v>
+      </c>
+      <c r="Y58">
+        <v>125.795</v>
+      </c>
+      <c r="Z58">
+        <v>0.53</v>
+      </c>
+      <c r="AA58">
+        <v>211.72300000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>309.07100000000003</v>
+      </c>
+      <c r="D59">
+        <v>2493.0210000000002</v>
+      </c>
+      <c r="E59">
+        <v>212.06800000000001</v>
+      </c>
+      <c r="F59">
+        <v>1302.789</v>
+      </c>
+      <c r="G59">
+        <v>3950.49</v>
+      </c>
+      <c r="H59">
+        <v>8032.44</v>
+      </c>
+      <c r="I59">
+        <v>3845.1289999999999</v>
+      </c>
+      <c r="J59">
+        <v>4533.3289999999997</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>4693.1019999999999</v>
+      </c>
+      <c r="O59">
+        <v>9675.6849999999995</v>
+      </c>
+      <c r="P59">
+        <v>4533.3289999999997</v>
+      </c>
+      <c r="Q59">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42133</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>-1643.2449999999999</v>
+      </c>
+      <c r="U59">
+        <v>153.28800000000001</v>
+      </c>
+      <c r="V59">
+        <v>522.57399999999996</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-409.21600000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-1.004</v>
+      </c>
+      <c r="AA59">
+        <v>309.07100000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42245</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>401.137</v>
+      </c>
+      <c r="D60">
+        <v>3290.404</v>
+      </c>
+      <c r="E60">
+        <v>247.87200000000001</v>
+      </c>
+      <c r="F60">
+        <v>1727.548</v>
+      </c>
+      <c r="G60">
+        <v>3970.2939999999999</v>
+      </c>
+      <c r="H60">
+        <v>8102.3490000000002</v>
+      </c>
+      <c r="I60">
+        <v>3864.1680000000001</v>
+      </c>
+      <c r="J60">
+        <v>4624.8760000000002</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4712.8729999999996</v>
+      </c>
+      <c r="O60">
+        <v>9803.7389999999996</v>
+      </c>
+      <c r="P60">
+        <v>4665.4040000000005</v>
+      </c>
+      <c r="Q60">
+        <v>22.021000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42245</v>
+      </c>
+      <c r="S60">
+        <v>46980</v>
+      </c>
+      <c r="T60">
+        <v>-1701.39</v>
+      </c>
+      <c r="U60">
+        <v>175.309</v>
+      </c>
+      <c r="V60">
+        <v>526.01099999999997</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-312.79199999999997</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="AA60">
+        <v>401.137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42329</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>258.11200000000002</v>
+      </c>
+      <c r="D61">
+        <v>2386.0430000000001</v>
+      </c>
+      <c r="E61">
+        <v>248.12</v>
+      </c>
+      <c r="F61">
+        <v>1252.934</v>
+      </c>
+      <c r="G61">
+        <v>4053.8710000000001</v>
+      </c>
+      <c r="H61">
+        <v>8217.5280000000002</v>
+      </c>
+      <c r="I61">
+        <v>3889.8490000000002</v>
+      </c>
+      <c r="J61">
+        <v>4754.1009999999997</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-310.096</v>
+      </c>
+      <c r="N61">
+        <v>4775.241</v>
+      </c>
+      <c r="O61">
+        <v>9995.6489999999994</v>
+      </c>
+      <c r="P61">
+        <v>4754.1009999999997</v>
+      </c>
+      <c r="Q61">
+        <v>-9.8230000000000004</v>
+      </c>
+      <c r="R61">
+        <v>42329</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>-1778.1210000000001</v>
+      </c>
+      <c r="U61">
+        <v>165.48599999999999</v>
+      </c>
+      <c r="V61">
+        <v>347.00299999999999</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-256.85599999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-4.6630000000000003</v>
+      </c>
+      <c r="AA61">
+        <v>258.11200000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42413</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>228.613</v>
+      </c>
+      <c r="D62">
+        <v>2257.192</v>
+      </c>
+      <c r="E62">
+        <v>295.79199999999997</v>
+      </c>
+      <c r="F62">
+        <v>1190.596</v>
+      </c>
+      <c r="G62">
+        <v>4209.8130000000001</v>
+      </c>
+      <c r="H62">
+        <v>8366.4140000000007</v>
+      </c>
+      <c r="I62">
+        <v>3912.107</v>
+      </c>
+      <c r="J62">
+        <v>4387.8109999999997</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4994.6610000000001</v>
+      </c>
+      <c r="O62">
+        <v>10107.727000000001</v>
+      </c>
+      <c r="P62">
+        <v>4845.2150000000001</v>
+      </c>
+      <c r="Q62">
+        <v>42.472000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42413</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>-1741.3130000000001</v>
+      </c>
+      <c r="U62">
+        <v>207.958</v>
+      </c>
+      <c r="V62">
+        <v>215.41399999999999</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-63.262</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="AA62">
+        <v>228.613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42497</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>327.51400000000001</v>
+      </c>
+      <c r="D63">
+        <v>2593.672</v>
+      </c>
+      <c r="E63">
+        <v>294.529</v>
+      </c>
+      <c r="F63">
+        <v>1370.4580000000001</v>
+      </c>
+      <c r="G63">
+        <v>4225.4859999999999</v>
+      </c>
+      <c r="H63">
+        <v>8464.1049999999996</v>
+      </c>
+      <c r="I63">
+        <v>3991.03</v>
+      </c>
+      <c r="J63">
+        <v>4953.6970000000001</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>4647.5889999999999</v>
+      </c>
+      <c r="O63">
+        <v>10327.387000000001</v>
+      </c>
+      <c r="P63">
+        <v>4953.6970000000001</v>
+      </c>
+      <c r="Q63">
+        <v>5.4219999999999997</v>
+      </c>
+      <c r="R63">
+        <v>42497</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>-1863.2819999999999</v>
+      </c>
+      <c r="U63">
+        <v>213.38</v>
+      </c>
+      <c r="V63">
+        <v>532.81200000000001</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-417.161</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-4.1589999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>327.51499999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42609</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>426.76799999999997</v>
+      </c>
+      <c r="D64">
+        <v>3398.7689999999998</v>
+      </c>
+      <c r="E64">
+        <v>287.68</v>
+      </c>
+      <c r="F64">
+        <v>1794.748</v>
+      </c>
+      <c r="G64">
+        <v>4239.5730000000003</v>
+      </c>
+      <c r="H64">
+        <v>8599.7870000000003</v>
+      </c>
+      <c r="I64">
+        <v>4095.8539999999998</v>
+      </c>
+      <c r="J64">
+        <v>4924.1189999999997</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4690.32</v>
+      </c>
+      <c r="O64">
+        <v>10387.325000000001</v>
+      </c>
+      <c r="P64">
+        <v>4968.9530000000004</v>
+      </c>
+      <c r="Q64">
+        <v>-23.646000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42609</v>
+      </c>
+      <c r="S64">
+        <v>49560</v>
+      </c>
+      <c r="T64">
+        <v>-1787.538</v>
+      </c>
+      <c r="U64">
+        <v>189.73400000000001</v>
+      </c>
+      <c r="V64">
+        <v>545.83100000000002</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-379.24900000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-0.32</v>
+      </c>
+      <c r="AA64">
+        <v>426.76799999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42693</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>278.125</v>
+      </c>
+      <c r="D65">
+        <v>2467.8449999999998</v>
+      </c>
+      <c r="E65">
+        <v>270.76799999999997</v>
+      </c>
+      <c r="F65">
+        <v>1301.5419999999999</v>
+      </c>
+      <c r="G65">
+        <v>4368.6859999999997</v>
+      </c>
+      <c r="H65">
+        <v>8742.5439999999999</v>
+      </c>
+      <c r="I65">
+        <v>4162.3159999999998</v>
+      </c>
+      <c r="J65">
+        <v>4997.4459999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-11.012</v>
+      </c>
+      <c r="N65">
+        <v>4850.2190000000001</v>
+      </c>
+      <c r="O65">
+        <v>10637.769</v>
+      </c>
+      <c r="P65">
+        <v>4997.4459999999999</v>
+      </c>
+      <c r="Q65">
+        <v>5.8040000000000003</v>
+      </c>
+      <c r="R65">
+        <v>42693</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>-1895.2249999999999</v>
+      </c>
+      <c r="U65">
+        <v>195.53800000000001</v>
+      </c>
+      <c r="V65">
+        <v>406.5</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-297.92599999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-2.0910000000000002</v>
+      </c>
+      <c r="AA65">
+        <v>278.125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42777</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>237.14500000000001</v>
+      </c>
+      <c r="D66">
+        <v>2289.2190000000001</v>
+      </c>
+      <c r="E66">
+        <v>246.88200000000001</v>
+      </c>
+      <c r="F66">
+        <v>1205.5360000000001</v>
+      </c>
+      <c r="G66">
+        <v>4492.7669999999998</v>
+      </c>
+      <c r="H66">
+        <v>8902.6299999999992</v>
+      </c>
+      <c r="I66">
+        <v>4114.96</v>
+      </c>
+      <c r="J66">
+        <v>5151.8620000000001</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>4784.2719999999999</v>
+      </c>
+      <c r="O66">
+        <v>10730.07</v>
+      </c>
+      <c r="P66">
+        <v>5301.6639999999998</v>
+      </c>
+      <c r="Q66">
+        <v>15.111000000000001</v>
+      </c>
+      <c r="R66">
+        <v>42777</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>-1827.44</v>
+      </c>
+      <c r="U66">
+        <v>210.649</v>
+      </c>
+      <c r="V66">
+        <v>157.398</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-38.642000000000003</v>
+      </c>
+      <c r="Y66">
+        <v>149.80199999999999</v>
+      </c>
+      <c r="Z66">
+        <v>14.766</v>
+      </c>
+      <c r="AA66">
+        <v>237.14500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42861</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>331.69900000000001</v>
+      </c>
+      <c r="D67">
+        <v>2619.0070000000001</v>
+      </c>
+      <c r="E67">
+        <v>276.11</v>
+      </c>
+      <c r="F67">
+        <v>1378.4179999999999</v>
+      </c>
+      <c r="G67">
+        <v>4507.2489999999998</v>
+      </c>
+      <c r="H67">
+        <v>9028.2639999999992</v>
+      </c>
+      <c r="I67">
+        <v>4140.6899999999996</v>
+      </c>
+      <c r="J67">
+        <v>5152.8429999999998</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>4793.54</v>
+      </c>
+      <c r="O67">
+        <v>10742.477999999999</v>
+      </c>
+      <c r="P67">
+        <v>5304.8040000000001</v>
+      </c>
+      <c r="Q67">
+        <v>16.492000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42861</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>-1714.2139999999999</v>
+      </c>
+      <c r="U67">
+        <v>227.14099999999999</v>
+      </c>
+      <c r="V67">
+        <v>445.33199999999999</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-275.27699999999999</v>
+      </c>
+      <c r="Y67">
+        <v>151.96100000000001</v>
+      </c>
+      <c r="Z67">
+        <v>-15.042</v>
+      </c>
+      <c r="AA67">
+        <v>331.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42973</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>433.9</v>
+      </c>
+      <c r="D68">
+        <v>3512.605</v>
+      </c>
+      <c r="E68">
+        <v>280.733</v>
+      </c>
+      <c r="F68">
+        <v>1854.124</v>
+      </c>
+      <c r="G68">
+        <v>4611.2550000000001</v>
+      </c>
+      <c r="H68">
+        <v>9259.7810000000009</v>
+      </c>
+      <c r="I68">
+        <v>4168.9399999999996</v>
+      </c>
+      <c r="J68">
+        <v>5081.2380000000003</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4766.3010000000004</v>
+      </c>
+      <c r="O68">
+        <v>10688.157999999999</v>
+      </c>
+      <c r="P68">
+        <v>5129.3720000000003</v>
+      </c>
+      <c r="Q68">
+        <v>66.129000000000005</v>
+      </c>
+      <c r="R68">
+        <v>42973</v>
+      </c>
+      <c r="S68">
+        <v>53070</v>
+      </c>
+      <c r="T68">
+        <v>-1428.377</v>
+      </c>
+      <c r="U68">
+        <v>293.27</v>
+      </c>
+      <c r="V68">
+        <v>561.38199999999995</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-302.48399999999998</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-0.35099999999999998</v>
+      </c>
+      <c r="AA68">
+        <v>433.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43057</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>281.00299999999999</v>
+      </c>
+      <c r="D69">
+        <v>2589.1309999999999</v>
+      </c>
+      <c r="E69">
+        <v>272.45</v>
+      </c>
+      <c r="F69">
+        <v>1365.848</v>
+      </c>
+      <c r="G69">
+        <v>4717.192</v>
+      </c>
+      <c r="H69">
+        <v>9397.0840000000007</v>
+      </c>
+      <c r="I69">
+        <v>4326.7370000000001</v>
+      </c>
+      <c r="J69">
+        <v>4982.9840000000004</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>-99</v>
+      </c>
+      <c r="M69">
+        <v>-18</v>
+      </c>
+      <c r="N69">
+        <v>5067.6400000000003</v>
+      </c>
+      <c r="O69">
+        <v>10922.183000000001</v>
+      </c>
+      <c r="P69">
+        <v>4982.9840000000004</v>
+      </c>
+      <c r="Q69">
+        <v>-35.593000000000004</v>
+      </c>
+      <c r="R69">
+        <v>43057</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>-1525.0989999999999</v>
+      </c>
+      <c r="U69">
+        <v>257.67700000000002</v>
+      </c>
+      <c r="V69">
+        <v>565.01700000000005</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-463.70400000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-24.728999999999999</v>
+      </c>
+      <c r="AA69">
+        <v>281.00299999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>289.52999999999997</v>
+      </c>
+      <c r="D70">
+        <v>2413.0259999999998</v>
+      </c>
+      <c r="E70">
+        <v>282.53199999999998</v>
+      </c>
+      <c r="F70">
+        <v>1277.046</v>
+      </c>
+      <c r="G70">
+        <v>4826.3069999999998</v>
+      </c>
+      <c r="H70">
+        <v>9403.7189999999991</v>
+      </c>
+      <c r="I70">
+        <v>4365.6660000000002</v>
+      </c>
+      <c r="J70">
+        <v>5043.5410000000002</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4947.2280000000001</v>
+      </c>
+      <c r="O70">
+        <v>10734.266</v>
+      </c>
+      <c r="P70">
+        <v>5043.5410000000002</v>
+      </c>
+      <c r="Q70">
+        <v>30.844999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43141</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>-1330.547</v>
+      </c>
+      <c r="U70">
+        <v>288.52199999999999</v>
+      </c>
+      <c r="V70">
+        <v>187.32599999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-60.603000000000002</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>7.0030000000000001</v>
+      </c>
+      <c r="AA70">
+        <v>289.52999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>366.721</v>
+      </c>
+      <c r="D71">
+        <v>2660.152</v>
+      </c>
+      <c r="E71">
+        <v>261.29899999999998</v>
+      </c>
+      <c r="F71">
+        <v>1422.9739999999999</v>
+      </c>
+      <c r="G71">
+        <v>4671.277</v>
+      </c>
+      <c r="H71">
+        <v>9301.7690000000002</v>
+      </c>
+      <c r="I71">
+        <v>4296.6769999999997</v>
+      </c>
+      <c r="J71">
+        <v>4954.6970000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>4918.3360000000002</v>
+      </c>
+      <c r="O71">
+        <v>10663.371999999999</v>
+      </c>
+      <c r="P71">
+        <v>4954.6970000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-70.135999999999996</v>
+      </c>
+      <c r="R71">
+        <v>43225</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-1361.6030000000001</v>
+      </c>
+      <c r="U71">
+        <v>218.386</v>
+      </c>
+      <c r="V71">
+        <v>504.01299999999998</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-500.86700000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>7.048</v>
+      </c>
+      <c r="AA71">
+        <v>366.721</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43337</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>400.28199999999998</v>
+      </c>
+      <c r="D72">
+        <v>3558.768</v>
+      </c>
+      <c r="E72">
+        <v>258.13600000000002</v>
+      </c>
+      <c r="F72">
+        <v>1907.8789999999999</v>
+      </c>
+      <c r="G72">
+        <v>4635.8689999999997</v>
+      </c>
+      <c r="H72">
+        <v>9346.98</v>
+      </c>
+      <c r="I72">
+        <v>4409.3720000000003</v>
+      </c>
+      <c r="J72">
+        <v>5005.93</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5028.6809999999996</v>
+      </c>
+      <c r="O72">
+        <v>10867.334999999999</v>
+      </c>
+      <c r="P72">
+        <v>5160.2299999999996</v>
+      </c>
+      <c r="Q72">
+        <v>-0.56200000000000006</v>
+      </c>
+      <c r="R72">
+        <v>43337</v>
+      </c>
+      <c r="S72">
+        <v>54900</v>
+      </c>
+      <c r="T72">
+        <v>-1520.355</v>
+      </c>
+      <c r="U72">
+        <v>217.82400000000001</v>
+      </c>
+      <c r="V72">
+        <v>823.93600000000004</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-606.98</v>
+      </c>
+      <c r="Y72">
+        <v>102.01</v>
+      </c>
+      <c r="Z72">
+        <v>-24.213999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>400.28199999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43421</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>351.40600000000001</v>
+      </c>
+      <c r="D73">
+        <v>2641.7330000000002</v>
+      </c>
+      <c r="E73">
+        <v>275.19400000000002</v>
+      </c>
+      <c r="F73">
+        <v>1417.4739999999999</v>
+      </c>
+      <c r="G73">
+        <v>4814.3289999999997</v>
+      </c>
+      <c r="H73">
+        <v>9523.5810000000001</v>
+      </c>
+      <c r="I73">
+        <v>4455.33</v>
+      </c>
+      <c r="J73">
+        <v>5156.0370000000003</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-12.597</v>
+      </c>
+      <c r="N73">
+        <v>5168.1719999999996</v>
+      </c>
+      <c r="O73">
+        <v>11182.197</v>
+      </c>
+      <c r="P73">
+        <v>5156.0370000000003</v>
+      </c>
+      <c r="Q73">
+        <v>34.262</v>
+      </c>
+      <c r="R73">
+        <v>43421</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>-1658.616</v>
+      </c>
+      <c r="U73">
+        <v>252.08600000000001</v>
+      </c>
+      <c r="V73">
+        <v>449.18200000000002</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-315.608</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>5.6360000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>351.40600000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43505</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>294.63799999999998</v>
+      </c>
+      <c r="D74">
+        <v>2450.5680000000002</v>
+      </c>
+      <c r="E74">
+        <v>298.31900000000002</v>
+      </c>
+      <c r="F74">
+        <v>1325.107</v>
+      </c>
+      <c r="G74">
+        <v>4997.0720000000001</v>
+      </c>
+      <c r="H74">
+        <v>9745.0949999999993</v>
+      </c>
+      <c r="I74">
+        <v>4669.5680000000002</v>
+      </c>
+      <c r="J74">
+        <v>5111.201</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>5334.3029999999999</v>
+      </c>
+      <c r="O74">
+        <v>11339.457</v>
+      </c>
+      <c r="P74">
+        <v>5111.201</v>
+      </c>
+      <c r="Q74">
+        <v>-56.420999999999999</v>
+      </c>
+      <c r="R74">
+        <v>43505</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>-1594.3620000000001</v>
+      </c>
+      <c r="U74">
+        <v>195.66499999999999</v>
+      </c>
+      <c r="V74">
+        <v>367.887</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-345.94</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>7.8410000000000002</v>
+      </c>
+      <c r="AA74">
+        <v>294.63799999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>405.94799999999998</v>
+      </c>
+      <c r="D75">
+        <v>2783.0059999999999</v>
+      </c>
+      <c r="E75">
+        <v>281.61</v>
+      </c>
+      <c r="F75">
+        <v>1492.02</v>
+      </c>
+      <c r="G75">
+        <v>4971.34</v>
+      </c>
+      <c r="H75">
+        <v>9773.74</v>
+      </c>
+      <c r="I75">
+        <v>4693.0940000000001</v>
+      </c>
+      <c r="J75">
+        <v>5151.9170000000004</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>5316.8890000000001</v>
+      </c>
+      <c r="O75">
+        <v>11363.253000000001</v>
+      </c>
+      <c r="P75">
+        <v>5151.9170000000004</v>
+      </c>
+      <c r="Q75">
+        <v>-21.606999999999999</v>
+      </c>
+      <c r="R75">
+        <v>43589</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-1589.5129999999999</v>
+      </c>
+      <c r="U75">
+        <v>174.05799999999999</v>
+      </c>
+      <c r="V75">
+        <v>469.56599999999997</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-381.92899999999997</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="AA75">
+        <v>405.94900000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>565.22900000000004</v>
+      </c>
+      <c r="D76">
+        <v>3988.4360000000001</v>
+      </c>
+      <c r="E76">
+        <v>308.995</v>
+      </c>
+      <c r="F76">
+        <v>2130.4</v>
+      </c>
+      <c r="G76">
+        <v>5028.6850000000004</v>
+      </c>
+      <c r="H76">
+        <v>9895.9130000000005</v>
+      </c>
+      <c r="I76">
+        <v>4864.9120000000003</v>
+      </c>
+      <c r="J76">
+        <v>5206.3440000000001</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>5512.1409999999996</v>
+      </c>
+      <c r="O76">
+        <v>11609.763999999999</v>
+      </c>
+      <c r="P76">
+        <v>5386.2489999999998</v>
+      </c>
+      <c r="Q76">
+        <v>2.242</v>
+      </c>
+      <c r="R76">
+        <v>43708</v>
+      </c>
+      <c r="S76">
+        <v>55680</v>
+      </c>
+      <c r="T76">
+        <v>-1713.8510000000001</v>
+      </c>
+      <c r="U76">
+        <v>176.3</v>
+      </c>
+      <c r="V76">
+        <v>841.87800000000004</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-630.61099999999999</v>
+      </c>
+      <c r="Y76">
+        <v>123.65900000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-24.594999999999999</v>
+      </c>
+      <c r="AA76">
+        <v>565.22900000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>350.33800000000002</v>
+      </c>
+      <c r="D77">
+        <v>2793.038</v>
+      </c>
+      <c r="E77">
+        <v>333.24599999999998</v>
+      </c>
+      <c r="F77">
+        <v>1501.068</v>
+      </c>
+      <c r="G77">
+        <v>5156.9750000000004</v>
+      </c>
+      <c r="H77">
+        <v>12700.456</v>
+      </c>
+      <c r="I77">
+        <v>4922.1480000000001</v>
+      </c>
+      <c r="J77">
+        <v>5287.3239999999996</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-14.331</v>
+      </c>
+      <c r="N77">
+        <v>5868.2359999999999</v>
+      </c>
+      <c r="O77">
+        <v>14476.546</v>
+      </c>
+      <c r="P77">
+        <v>8222.366</v>
+      </c>
+      <c r="Q77">
+        <v>-18.210999999999999</v>
+      </c>
+      <c r="R77">
+        <v>43792</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-1776.09</v>
+      </c>
+      <c r="U77">
+        <v>158.089</v>
+      </c>
+      <c r="V77">
+        <v>447.10199999999998</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-375.80799999999999</v>
+      </c>
+      <c r="Y77">
+        <v>2644.6849999999999</v>
+      </c>
+      <c r="Z77">
+        <v>10.317</v>
+      </c>
+      <c r="AA77">
+        <v>350.33800000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>299.28199999999998</v>
+      </c>
+      <c r="D78">
+        <v>2513.663</v>
+      </c>
+      <c r="E78">
+        <v>340.28</v>
+      </c>
+      <c r="F78">
+        <v>1366.0630000000001</v>
+      </c>
+      <c r="G78">
+        <v>5300.5469999999996</v>
+      </c>
+      <c r="H78">
+        <v>12863.749</v>
+      </c>
+      <c r="I78">
+        <v>4869.9139999999998</v>
+      </c>
+      <c r="J78">
+        <v>5451.4709999999995</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>5779.56</v>
+      </c>
+      <c r="O78">
+        <v>14574.868</v>
+      </c>
+      <c r="P78">
+        <v>8376.8629999999994</v>
+      </c>
+      <c r="Q78">
+        <v>-5.1189999999999998</v>
+      </c>
+      <c r="R78">
+        <v>43876</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>-1711.1189999999999</v>
+      </c>
+      <c r="U78">
+        <v>152.97</v>
+      </c>
+      <c r="V78">
+        <v>204.542</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-126.95699999999999</v>
+      </c>
+      <c r="Y78">
+        <v>2632.0219999999999</v>
+      </c>
+      <c r="Z78">
+        <v>4.1479999999999997</v>
+      </c>
+      <c r="AA78">
+        <v>299.28199999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>342.89499999999998</v>
+      </c>
+      <c r="D79">
+        <v>2779.299</v>
+      </c>
+      <c r="E79">
+        <v>266.92</v>
+      </c>
+      <c r="F79">
+        <v>1490.6479999999999</v>
+      </c>
+      <c r="G79">
+        <v>5397.9930000000004</v>
+      </c>
+      <c r="H79">
+        <v>12902.130999999999</v>
+      </c>
+      <c r="I79">
+        <v>4806.3289999999997</v>
+      </c>
+      <c r="J79">
+        <v>5418.2719999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>5769.076</v>
+      </c>
+      <c r="O79">
+        <v>14534.867</v>
+      </c>
+      <c r="P79">
+        <v>8320.5869999999995</v>
+      </c>
+      <c r="Q79">
+        <v>356.14800000000002</v>
+      </c>
+      <c r="R79">
+        <v>43960</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-1632.7360000000001</v>
+      </c>
+      <c r="U79">
+        <v>509.11799999999999</v>
+      </c>
+      <c r="V79">
+        <v>651.46400000000006</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-209.387</v>
+      </c>
+      <c r="Y79">
+        <v>2607.538</v>
+      </c>
+      <c r="Z79">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AA79">
+        <v>342.89600000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>740.45699999999999</v>
+      </c>
+      <c r="D80">
+        <v>4545.9679999999998</v>
+      </c>
+      <c r="E80">
+        <v>364.774</v>
+      </c>
+      <c r="F80">
+        <v>2412.9749999999999</v>
+      </c>
+      <c r="G80">
+        <v>6811.8720000000003</v>
+      </c>
+      <c r="H80">
+        <v>14423.871999999999</v>
+      </c>
+      <c r="I80">
+        <v>5156.3239999999996</v>
+      </c>
+      <c r="J80">
+        <v>5513.3710000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>6283.0910000000003</v>
+      </c>
+      <c r="O80">
+        <v>15301.849</v>
+      </c>
+      <c r="P80">
+        <v>8462.1299999999992</v>
+      </c>
+      <c r="Q80">
+        <v>1241.6969999999999</v>
+      </c>
+      <c r="R80">
+        <v>44072</v>
+      </c>
+      <c r="S80">
+        <v>60000</v>
+      </c>
+      <c r="T80">
+        <v>-877.97699999999998</v>
+      </c>
+      <c r="U80">
+        <v>1750.8150000000001</v>
+      </c>
+      <c r="V80">
+        <v>1417</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>68.516000000000005</v>
+      </c>
+      <c r="Y80">
+        <v>2657.415</v>
+      </c>
+      <c r="Z80">
+        <v>-76.066999999999993</v>
+      </c>
+      <c r="AA80">
+        <v>740.45699999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>442.43299999999999</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>3154.261</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>350.91500000000002</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>1675.617</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>6836.7950000000001</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>14568.574000000001</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>5282.3130000000001</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>5514.8739999999998</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
         <v>-13.786</v>
       </c>
-      <c r="N42">
+      <c r="N81">
         <v>6456.7030000000004</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>15595.554</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>8518.1350000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>-86.81</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44156</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>-1026.98</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>1664.0050000000001</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>683.49099999999999</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>-663.44399999999996</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>2693.5210000000002</v>
       </c>
-      <c r="Z42">
+      <c r="Z81">
         <v>5.2249999999999996</v>
       </c>
-      <c r="AA42">
+      <c r="AA81">
         <v>442.43299999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44240</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>345.94600000000003</v>
+      </c>
+      <c r="D82">
+        <v>2910.8180000000002</v>
+      </c>
+      <c r="E82">
+        <v>352.517</v>
+      </c>
+      <c r="F82">
+        <v>1559.383</v>
+      </c>
+      <c r="G82">
+        <v>6326.8450000000003</v>
+      </c>
+      <c r="H82">
+        <v>14159.993</v>
+      </c>
+      <c r="I82">
+        <v>5351.0959999999995</v>
+      </c>
+      <c r="J82">
+        <v>5266.3959999999997</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>6804.2709999999997</v>
+      </c>
+      <c r="O82">
+        <v>15683.566000000001</v>
+      </c>
+      <c r="P82">
+        <v>8561.3029999999999</v>
+      </c>
+      <c r="Q82">
+        <v>-637.84100000000001</v>
+      </c>
+      <c r="R82">
+        <v>44240</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>-1523.5730000000001</v>
+      </c>
+      <c r="U82">
+        <v>1026.164</v>
+      </c>
+      <c r="V82">
+        <v>356.35599999999999</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>-877.44500000000005</v>
+      </c>
+      <c r="Y82">
+        <v>2727.9250000000002</v>
+      </c>
+      <c r="Z82">
+        <v>6.9660000000000002</v>
+      </c>
+      <c r="AA82">
+        <v>345.94600000000003</v>
       </c>
     </row>
   </sheetData>
